--- a/wwwroot/Data/websiteDB.xlsx
+++ b/wwwroot/Data/websiteDB.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgreen3\Desktop\FunWithBrandt\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B5C162-A83B-4A5F-881A-3E6D4187470A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80E37C4-5A16-46FF-916A-3E246B78E79D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E658BFBE-975E-47B3-8C51-826238D4C145}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E658BFBE-975E-47B3-8C51-826238D4C145}"/>
   </bookViews>
   <sheets>
-    <sheet name="Books" sheetId="1" r:id="rId1"/>
-    <sheet name="Knowledge" sheetId="3" r:id="rId2"/>
+    <sheet name="Posts" sheetId="4" r:id="rId1"/>
+    <sheet name="Books" sheetId="1" r:id="rId2"/>
+    <sheet name="Knowledge" sheetId="3" r:id="rId3"/>
+    <sheet name="Blog" sheetId="5" r:id="rId4"/>
+    <sheet name="Programs" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="466">
   <si>
     <t>50 Economics Classics: Your shortcut to the most important ideas on capitalism; finance; and the global economy</t>
   </si>
@@ -1318,13 +1321,248 @@
   </si>
   <si>
     <t>https://github.com/JanKallman/EPPlus/wiki</t>
+  </si>
+  <si>
+    <t>PostId</t>
+  </si>
+  <si>
+    <t>BookId</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>ImageName</t>
+  </si>
+  <si>
+    <t>CoverDescription</t>
+  </si>
+  <si>
+    <t>Long Description</t>
+  </si>
+  <si>
+    <t>KnowledgeId</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>BlogId</t>
+  </si>
+  <si>
+    <t>ProgramId</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Friends in WW I</t>
+  </si>
+  <si>
+    <t>Investment Execution</t>
+  </si>
+  <si>
+    <t>Investment Execution-2</t>
+  </si>
+  <si>
+    <t>Manager Style</t>
+  </si>
+  <si>
+    <t>Corporate Profits</t>
+  </si>
+  <si>
+    <t>Resizing Images in Bulk</t>
+  </si>
+  <si>
+    <t>VBA Utilities</t>
+  </si>
+  <si>
+    <t>Outlook Email</t>
+  </si>
+  <si>
+    <t>Color-Coordinate Finder</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>VBA</t>
+  </si>
+  <si>
+    <t>I used this answer to get started and then made some small adjustments for my needs: https://stackoverflow.com/questions/273946/how-do-i-resize-an-image-using-pil-and-maintain-its-aspect-ratio</t>
+  </si>
+  <si>
+    <t>This script resizes all of the images in the specified folder to have the same width and height. I think you'll have to install pillow module, but afterwords you should only need to input the minimum width, desired aspect ratio, and folder path. Be careful that it will save over the old images in the folder.</t>
+  </si>
+  <si>
+    <t>Use this to find the (X,Y) coordinates or RGB code for a particular location on your monitor. Just run it and hover your mouse over the area in question. This script runs continuously until interrupted with the control + c keyboard command. You may have issued with dual monitors as I have it crash on me before.</t>
+  </si>
+  <si>
+    <t>Basic sub to create an outlook email from excel without sending it. Now that I am looking at this though, this should definitely just be a function with the email inputs as parameters.</t>
+  </si>
+  <si>
+    <t>Here are a few vba subs and functions which I use all the time. Most don't seem to fancy, but are extremely useful to reduce repitition adn increase readability in larger programs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+import pyautogui
+import time
+try:
+    while True:
+        x, y = pyautogui.position()
+        positionStr = 'X: ' + str(x).rjust(4) + ' Y: ' + str(y).rjust(4)
+        pixelColor = pyautogui.screenshot().getpixel((x, y))
+        positionStr += ' RGB: (' + str(pixelColor[0]).rjust(3)
+        positionStr += ', ' + str(pixelColor[1]).rjust(3)
+        positionStr += ', ' + str(pixelColor[2]).rjust(3) + ')'
+        print(positionStr)
+        time.sleep(3)
+except KeyboardInterrupt:
+    print('\nDone.')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sub OutlookEMail()
+    Dim outlookApp As Object, outlookMail As Object, signature As String
+    Set outlookApp = CreateObject("outlook.application")
+    Set outlookMail = outlookApp.CreateItem(0)
+    With outlookMail
+        .Display
+        signature = outlookMail.htmlbody
+        .To = "bgreen3@strategiccomp.com"
+        .Subject = "fun subject here"
+        .htmlbody = "Some content here" &amp; vbNewLine &amp; signature
+    End With
+    Set outlookApp = Nothing
+    Set outlookMail = Nothing
+End Sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Function WorksheetExists(sheetName As String, Optional wb As Workbook) As Boolean
+    Dim sht As Worksheet
+    If wb Is Nothing Then Set wb = ActiveWorkbook
+    On Error Resume Next
+    Set sht = wb.Worksheets(sheetName)
+    On Error GoTo 0
+    WorksheetExists = Not sht Is Nothing
+End Function
+Function contains(var1, var2) As Boolean
+   Dim currentObject
+   For Each currentObject In var1
+        If currentObject = var2 Then
+            contains = True
+            Exit Function
+        End If
+   Next currentObject
+End Function
+Function IsVarArrayEmpty(anArray As Variant) As Boolean
+    Dim i As Integer
+    On Error Resume Next
+        i = UBound(anArray, 1)
+    If Err.Number = 0 Then
+        IsVarArrayEmpty = False
+    Else
+        IsVarArrayEmpty = True
+    End If
+End Function
+Function NamedRangeExists(rgName As String, worksheetName As String) As Boolean
+    Dim rngTest As Range
+    On Error Resume Next
+    Set rngTest = ActiveWorkbook.Worksheets(worksheetName).Range(rgName)
+    If Err = 0 Then
+        NamedRangeExists = True
+        Exit Function
+    Else
+        NamedRangeExists = False
+        Exit Function
+    End If
+End Function
+Sub TurnOffFunctionality()
+    Excel.Application.Calculation = xlCalculationManual
+    Excel.Application.DisplayStatusBar = False
+    Excel.Application.EnableEvents = False
+    Excel.Application.ScreenUpdating = False
+End Sub
+Sub TurnOnFunctionality()
+    Excel.Application.Calculation = xlCalculationAutomatic
+    Excel.Application.DisplayStatusBar = True
+    Excel.Application.DisplayAlerts = True
+    Excel.Application.EnableEvents = True
+    Excel.Application.ScreenUpdating = True
+End Sub
+Sub PDFWb()
+    Dim spath As String, retval, defaultName As String, name As String, destinationFolder As String
+    destinationFolder = "C:\Users\bgreen3" 
+    defaultName = "UAP--" &amp; Left(ActiveWorkbook.name, Len(ActiveWorkbook.name) - 5)
+    name = Application.InputBox("Name of the file is:", Default:=defaultName)
+    If name = "False" Then Exit Sub
+     ActiveWorkbook.ExportAsFixedFormat Type:=xlTypePDF, Filename:= _
+            "destinationFolder" &amp; name, Quality:=xlQualityStandard, _
+            IncludeDocProperties:=True, IgnorePrintAreas:=False, OpenAfterPublish:= _
+            False
+End Sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+from PIL import Image
+import os
+def Resize(img):
+    img = img.resize((minWidth,minHeight), Image.ANTIALIAS)
+    return img
+aspectRatio = 1.45
+folderPath = r'C:\Users\bgreen3\Desktop\Images' 
+minWidth = 220 # Set width for new images
+minHeight = int(220 * 1.45) # height based off of desired aspect ratio
+resized = []
+notResized = []
+error = []
+for fileName in os.listdir(folderPath):
+    if fileName.endswith('.jpg') or fileName.endswith('png'):
+        fullPath = folderPath + '\\' + fileName
+        img = Image.open(fullPath)
+        if img.width &lt; minWidth or img.height &lt; minHeight:
+           notResized.append(fileName) # print('Not resizing because dimensions are too small for ' + fileName)
+        else:    
+            # Below shouldn't be necessary, but I had an error where the img.width calculated the image size incorrect
+            # which caused the program to try to resize an image to be bigger than it was.
+            try: 
+                img = Resize(img)    
+                img.save(fileName) #Be careful. This saves over old image.
+                resized.append(fileName)       
+            except:
+                error.append(fileName)
+    else:
+        print('Not an image: so not resizing: ' + fileName)
+        notResized.append(fileName)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1345,6 +1583,19 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1368,7 +1619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1376,6 +1627,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1690,13 +1948,739 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5872507-66CB-433C-B11F-B7E6549B1933}">
+  <dimension ref="A1:A143"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CB5E06-FA96-4FE9-8E4F-D25936EA3EDB}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1704,1211 +2688,1392 @@
     <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>48</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>55</v>
       </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>64</v>
       </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>54</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>66</v>
       </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>67</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>69</v>
       </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>70</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>71</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>72</v>
       </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>12</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>74</v>
       </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>77</v>
       </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>80</v>
       </c>
-      <c r="E26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>82</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>83</v>
       </c>
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>86</v>
       </c>
-      <c r="E28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>88</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>89</v>
       </c>
-      <c r="E29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>91</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>92</v>
       </c>
-      <c r="E30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>94</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>95</v>
       </c>
-      <c r="E31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>97</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>98</v>
       </c>
-      <c r="E32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>100</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>101</v>
       </c>
-      <c r="E33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>57</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>102</v>
       </c>
-      <c r="E34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>104</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>105</v>
       </c>
-      <c r="E35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>48</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>107</v>
       </c>
-      <c r="E36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>108</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>109</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>110</v>
       </c>
-      <c r="E37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>112</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>113</v>
       </c>
-      <c r="E38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>54</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>115</v>
       </c>
-      <c r="E39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>116</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>117</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>118</v>
       </c>
-      <c r="E40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="E41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>120</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>121</v>
       </c>
-      <c r="E41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>122</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>123</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>124</v>
       </c>
-      <c r="E42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>125</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>126</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>127</v>
       </c>
-      <c r="E43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>128</v>
       </c>
-      <c r="E44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="E45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>130</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>131</v>
       </c>
-      <c r="E45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>133</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>134</v>
       </c>
-      <c r="E46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>136</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>137</v>
       </c>
-      <c r="E47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>139</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>140</v>
       </c>
-      <c r="E48" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>142</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>143</v>
       </c>
-      <c r="E49" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>48</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>145</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>146</v>
       </c>
-      <c r="F50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>54</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>148</v>
       </c>
-      <c r="E51" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="E52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>150</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>151</v>
       </c>
-      <c r="E52" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="E53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>153</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>154</v>
       </c>
-      <c r="E53" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="E54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>156</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>157</v>
       </c>
-      <c r="E54" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>158</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>159</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>160</v>
       </c>
-      <c r="E55" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="E56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>162</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>163</v>
       </c>
-      <c r="E56" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="E57" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>165</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>166</v>
       </c>
-      <c r="E57" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="E58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>168</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>169</v>
       </c>
-      <c r="E58" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="E59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>170</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>171</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>172</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>173</v>
       </c>
-      <c r="F59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="F60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" t="s">
-        <v>176</v>
-      </c>
-      <c r="E60" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>174</v>
@@ -2917,418 +4082,481 @@
         <v>175</v>
       </c>
       <c r="D61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" t="s">
         <v>177</v>
       </c>
-      <c r="E61" t="s">
-        <v>3</v>
-      </c>
-      <c r="F61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="E62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>179</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>180</v>
       </c>
-      <c r="E62" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="E63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>36</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>181</v>
       </c>
-      <c r="E63" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="E64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>182</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>183</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>184</v>
       </c>
-      <c r="E64" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="E65" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>185</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>186</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>187</v>
       </c>
-      <c r="E65" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="E66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>63</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>189</v>
       </c>
-      <c r="E66" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="E67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>190</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>191</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>192</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>193</v>
       </c>
-      <c r="F67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="F68" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>195</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>196</v>
       </c>
-      <c r="E68" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="E69" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>198</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>199</v>
       </c>
-      <c r="E69" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="E70" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>201</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>202</v>
       </c>
-      <c r="E70" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="E71" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>204</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>205</v>
       </c>
-      <c r="E71" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="E72" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>206</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>207</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>208</v>
       </c>
-      <c r="E72" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="E73" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>210</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
         <v>211</v>
       </c>
-      <c r="E73" t="s">
-        <v>3</v>
-      </c>
-      <c r="F73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="E74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>212</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>213</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>214</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>215</v>
       </c>
-      <c r="F74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="F75" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>39</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>217</v>
       </c>
-      <c r="E75" t="s">
-        <v>3</v>
-      </c>
-      <c r="F75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="E76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>19</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>219</v>
       </c>
-      <c r="E76" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="E77" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>221</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>222</v>
       </c>
-      <c r="E77" t="s">
-        <v>3</v>
-      </c>
-      <c r="F77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="E78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>224</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>225</v>
       </c>
-      <c r="E78" t="s">
-        <v>3</v>
-      </c>
-      <c r="F78" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="E79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>227</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>228</v>
       </c>
-      <c r="E79" t="s">
-        <v>3</v>
-      </c>
-      <c r="F79" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="E80" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>48</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>230</v>
       </c>
-      <c r="E80" t="s">
-        <v>3</v>
-      </c>
-      <c r="F80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="E81" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>81</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" t="s">
-        <v>231</v>
-      </c>
-      <c r="E81" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>87</v>
@@ -3337,493 +4565,591 @@
         <v>85</v>
       </c>
       <c r="D82" t="s">
+        <v>231</v>
+      </c>
+      <c r="E82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" t="s">
         <v>232</v>
       </c>
-      <c r="E82" t="s">
-        <v>3</v>
-      </c>
-      <c r="F82" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="E83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>234</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>235</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>236</v>
       </c>
-      <c r="F83" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="F84" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>238</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>239</v>
       </c>
-      <c r="E84" t="s">
-        <v>3</v>
-      </c>
-      <c r="F84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="E85" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>241</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>242</v>
       </c>
-      <c r="E85" t="s">
-        <v>3</v>
-      </c>
-      <c r="F85" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="E86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>71</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D87" t="s">
         <v>243</v>
       </c>
-      <c r="E86" t="s">
-        <v>3</v>
-      </c>
-      <c r="F86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="E87" t="s">
+        <v>3</v>
+      </c>
+      <c r="F87" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>244</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>245</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" t="s">
         <v>246</v>
       </c>
-      <c r="E87" t="s">
-        <v>3</v>
-      </c>
-      <c r="F87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="E88" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>247</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>248</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D89" t="s">
         <v>249</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>250</v>
       </c>
-      <c r="F88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="F89" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>251</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>252</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D90" t="s">
         <v>253</v>
       </c>
-      <c r="E89" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="E90" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>254</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>255</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D91" t="s">
         <v>256</v>
       </c>
-      <c r="E90" t="s">
-        <v>3</v>
-      </c>
-      <c r="F90" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="E91" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>257</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>60</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>258</v>
       </c>
-      <c r="E91" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="E92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>259</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>260</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>261</v>
       </c>
-      <c r="E92" t="s">
-        <v>3</v>
-      </c>
-      <c r="F92" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="E93" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>262</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>263</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D94" t="s">
         <v>264</v>
       </c>
-      <c r="E93" t="s">
-        <v>3</v>
-      </c>
-      <c r="F93" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="E94" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>265</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>266</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>267</v>
       </c>
-      <c r="E94" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="E95" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>268</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>269</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" t="s">
         <v>270</v>
       </c>
-      <c r="E95" t="s">
-        <v>3</v>
-      </c>
-      <c r="F95" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>63</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D97" t="s">
         <v>271</v>
       </c>
-      <c r="E96" t="s">
-        <v>3</v>
-      </c>
-      <c r="F96" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="E97" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>272</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
         <v>273</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D98" t="s">
         <v>274</v>
       </c>
-      <c r="E97" t="s">
-        <v>3</v>
-      </c>
-      <c r="F97" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>276</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>277</v>
       </c>
-      <c r="E98" t="s">
-        <v>3</v>
-      </c>
-      <c r="F98" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="E99" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99" t="s">
+        <v>4</v>
+      </c>
+      <c r="G99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>63</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>279</v>
       </c>
-      <c r="E99" t="s">
-        <v>3</v>
-      </c>
-      <c r="F99" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>280</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>281</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>282</v>
       </c>
-      <c r="E100" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="E101" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>284</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D102" t="s">
         <v>285</v>
       </c>
-      <c r="E101" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="E102" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>287</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D103" t="s">
         <v>288</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E103" t="s">
         <v>289</v>
       </c>
-      <c r="F102" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="F103" t="s">
+        <v>4</v>
+      </c>
+      <c r="G103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>54</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D104" t="s">
         <v>291</v>
       </c>
-      <c r="E103" t="s">
-        <v>3</v>
-      </c>
-      <c r="F103" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="E104" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>292</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>293</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D105" t="s">
         <v>294</v>
       </c>
-      <c r="E104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F104" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="E105" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>296</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D106" t="s">
         <v>297</v>
       </c>
-      <c r="E105" t="s">
-        <v>3</v>
-      </c>
-      <c r="F105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="E106" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>298</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>299</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>300</v>
       </c>
-      <c r="E106" t="s">
-        <v>3</v>
-      </c>
-      <c r="F106" t="s">
-        <v>4</v>
+      <c r="E107" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3831,13 +5157,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CB60D4-93F8-4068-A531-8A581990591B}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3848,650 +5172,1467 @@
     <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="F6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="F7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="F8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="F9">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="F10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="F11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="F12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="F13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="F14">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="F15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F17">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F19">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="F20">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F23">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="F24">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="F25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="F26">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F28">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="F29">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="F30">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="F31">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="F32">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="F33">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="F34">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="F35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="F36">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>416</v>
+      </c>
+      <c r="F37">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{CB75614B-0B0E-42E6-B2E9-BB4CB3970866}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{3ADA7C54-A0C3-4AF7-ACE3-E42B38F530E5}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{AABCB54B-1AA5-45D0-ADB2-4AAEE16063DD}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{A4E63390-E08E-47A4-987B-B96B1DC9261E}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{3508AC8D-F0C4-4A23-A354-79BF8296AC26}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{08039DF4-E4AB-4C2E-A40C-C44F5B5D150C}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{FC2C82C5-7324-4630-9760-F3F3F68F53E9}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{D283CF95-F972-4AB1-A0A7-F487E2AA6125}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{B8DB2F60-002C-48F8-8A64-61735B16FEBF}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{1D9A72E3-D270-4B00-9F5F-C2CFCC3C149A}"/>
-    <hyperlink ref="D14" r:id="rId11" xr:uid="{A7433479-7BF5-467D-B009-A2D491FA5224}"/>
-    <hyperlink ref="D15" r:id="rId12" xr:uid="{8D23A9AE-C128-4B2F-B5BA-2B7D102DC813}"/>
-    <hyperlink ref="D16" r:id="rId13" xr:uid="{CAF7950E-1A89-43CB-86E7-BE45B7F3FD84}"/>
-    <hyperlink ref="D20" r:id="rId14" xr:uid="{E1A215DB-B384-4D0D-B60A-D57BB5D4C931}"/>
-    <hyperlink ref="D21" r:id="rId15" xr:uid="{80FB7A20-D7C1-4D4C-B6BF-FE1E002228AB}"/>
-    <hyperlink ref="D22" r:id="rId16" xr:uid="{FC0BD4F2-E7B3-4701-889D-9208ED122017}"/>
-    <hyperlink ref="D23" r:id="rId17" xr:uid="{34DABD5A-CA58-4E4A-BD75-0F0E505E3637}"/>
-    <hyperlink ref="D25" r:id="rId18" xr:uid="{A71E3186-F0D4-4175-BE3A-27A71A1FD681}"/>
-    <hyperlink ref="D26" r:id="rId19" xr:uid="{68FEFCE5-AE17-47A8-AD8A-6C74440B14BE}"/>
-    <hyperlink ref="D27" r:id="rId20" xr:uid="{2BE0C667-22F6-4D0A-AC3B-D29E59660E52}"/>
-    <hyperlink ref="D28" r:id="rId21" xr:uid="{9D069E7B-1FF0-4CA1-9162-F08847B0C960}"/>
-    <hyperlink ref="D29" r:id="rId22" xr:uid="{30E6A219-47B6-4EE2-A347-0F9B4EB81446}"/>
-    <hyperlink ref="D30" r:id="rId23" xr:uid="{3F4A2240-186A-48B6-AAD7-E9C9CD8C2BC1}"/>
-    <hyperlink ref="D31" r:id="rId24" xr:uid="{D41F8E68-82C5-4A3E-9E51-4117D3CA3906}"/>
-    <hyperlink ref="D32" r:id="rId25" xr:uid="{CBAC2E33-D88A-4748-B37C-279245B8D488}"/>
-    <hyperlink ref="D33" r:id="rId26" xr:uid="{F6838F60-87DC-41B8-84A0-770EA8308861}"/>
-    <hyperlink ref="D34" r:id="rId27" xr:uid="{05F51246-61DC-48FA-8012-AF76340B0A93}"/>
-    <hyperlink ref="D35" r:id="rId28" xr:uid="{3C6878E1-A182-4850-9D63-0A142A4E7ADC}"/>
-    <hyperlink ref="D36" r:id="rId29" xr:uid="{F9290D5F-D8C2-4564-A9F4-780DF883D011}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{CB75614B-0B0E-42E6-B2E9-BB4CB3970866}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{3ADA7C54-A0C3-4AF7-ACE3-E42B38F530E5}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{AABCB54B-1AA5-45D0-ADB2-4AAEE16063DD}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{A4E63390-E08E-47A4-987B-B96B1DC9261E}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{3508AC8D-F0C4-4A23-A354-79BF8296AC26}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{08039DF4-E4AB-4C2E-A40C-C44F5B5D150C}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{FC2C82C5-7324-4630-9760-F3F3F68F53E9}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{D283CF95-F972-4AB1-A0A7-F487E2AA6125}"/>
+    <hyperlink ref="D13" r:id="rId9" xr:uid="{B8DB2F60-002C-48F8-8A64-61735B16FEBF}"/>
+    <hyperlink ref="D14" r:id="rId10" xr:uid="{1D9A72E3-D270-4B00-9F5F-C2CFCC3C149A}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{A7433479-7BF5-467D-B009-A2D491FA5224}"/>
+    <hyperlink ref="D16" r:id="rId12" xr:uid="{8D23A9AE-C128-4B2F-B5BA-2B7D102DC813}"/>
+    <hyperlink ref="D17" r:id="rId13" xr:uid="{CAF7950E-1A89-43CB-86E7-BE45B7F3FD84}"/>
+    <hyperlink ref="D21" r:id="rId14" xr:uid="{E1A215DB-B384-4D0D-B60A-D57BB5D4C931}"/>
+    <hyperlink ref="D22" r:id="rId15" xr:uid="{80FB7A20-D7C1-4D4C-B6BF-FE1E002228AB}"/>
+    <hyperlink ref="D23" r:id="rId16" xr:uid="{FC0BD4F2-E7B3-4701-889D-9208ED122017}"/>
+    <hyperlink ref="D24" r:id="rId17" xr:uid="{34DABD5A-CA58-4E4A-BD75-0F0E505E3637}"/>
+    <hyperlink ref="D26" r:id="rId18" xr:uid="{A71E3186-F0D4-4175-BE3A-27A71A1FD681}"/>
+    <hyperlink ref="D27" r:id="rId19" xr:uid="{68FEFCE5-AE17-47A8-AD8A-6C74440B14BE}"/>
+    <hyperlink ref="D28" r:id="rId20" xr:uid="{2BE0C667-22F6-4D0A-AC3B-D29E59660E52}"/>
+    <hyperlink ref="D29" r:id="rId21" xr:uid="{9D069E7B-1FF0-4CA1-9162-F08847B0C960}"/>
+    <hyperlink ref="D30" r:id="rId22" xr:uid="{30E6A219-47B6-4EE2-A347-0F9B4EB81446}"/>
+    <hyperlink ref="D31" r:id="rId23" xr:uid="{3F4A2240-186A-48B6-AAD7-E9C9CD8C2BC1}"/>
+    <hyperlink ref="D32" r:id="rId24" xr:uid="{D41F8E68-82C5-4A3E-9E51-4117D3CA3906}"/>
+    <hyperlink ref="D33" r:id="rId25" xr:uid="{CBAC2E33-D88A-4748-B37C-279245B8D488}"/>
+    <hyperlink ref="D34" r:id="rId26" xr:uid="{F6838F60-87DC-41B8-84A0-770EA8308861}"/>
+    <hyperlink ref="D35" r:id="rId27" xr:uid="{05F51246-61DC-48FA-8012-AF76340B0A93}"/>
+    <hyperlink ref="D36" r:id="rId28" xr:uid="{3C6878E1-A182-4850-9D63-0A142A4E7ADC}"/>
+    <hyperlink ref="D37" r:id="rId29" xr:uid="{F9290D5F-D8C2-4564-A9F4-780DF883D011}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF8F07A-3B88-4624-9A6F-E57A75B6D76A}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43737</v>
+      </c>
+      <c r="C2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43862</v>
+      </c>
+      <c r="C3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43863</v>
+      </c>
+      <c r="C4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>43870</v>
+      </c>
+      <c r="C5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>43893</v>
+      </c>
+      <c r="C6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8234FEF-28CB-49C0-B590-3C8C9AA27600}">
+  <dimension ref="A1:G166"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="6" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="11"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="11"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="11"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="11"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="11"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="11"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="11"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="11"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="11"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="11"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="11"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="11"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="11"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="11"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="11"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="11"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="11"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="11"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="11"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="11"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="11"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="11"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="11"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="11"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="11"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="11"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="11"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="11"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="11"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="11"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="11"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="11"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="11"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="11"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="11"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="11"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="11"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="11"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="11"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="11"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="11"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="11"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="11"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="11"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="11"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="11"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="11"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="11"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="11"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="11"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="11"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="11"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="11"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="11"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="11"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="11"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="11"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="11"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="11"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="11"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="11"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="11"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="11"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="11"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="11"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="11"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="11"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="11"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="11"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="11"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="11"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="11"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="11"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="11"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="11"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="11"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="11"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="11"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="11"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="11"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="11"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="11"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="11"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="11"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="11"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="11"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="11"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="11"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="11"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="11"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="11"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="11"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="11"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="11"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="11"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="11"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="11"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="11"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="11"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="11"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="11"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="11"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="11"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="11"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="11"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="11"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="11"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="11"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="11"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="11"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="11"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/wwwroot/Data/websiteDB.xlsx
+++ b/wwwroot/Data/websiteDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgreen3\Desktop\FunWithBrandt\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80E37C4-5A16-46FF-916A-3E246B78E79D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC448B5C-0520-46C4-9C38-885213AAB2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E658BFBE-975E-47B3-8C51-826238D4C145}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E658BFBE-975E-47B3-8C51-826238D4C145}"/>
   </bookViews>
   <sheets>
     <sheet name="Posts" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Knowledge" sheetId="3" r:id="rId3"/>
     <sheet name="Blog" sheetId="5" r:id="rId4"/>
     <sheet name="Programs" sheetId="6" r:id="rId5"/>
+    <sheet name="Comments" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="481">
   <si>
     <t>50 Economics Classics: Your shortcut to the most important ideas on capitalism; finance; and the global economy</t>
   </si>
@@ -1457,6 +1458,39 @@
     Set outlookApp = Nothing
     Set outlookMail = Nothing
 End Sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+from PIL import Image
+import os
+def Resize(img):
+    img = img.resize((minWidth,minHeight), Image.ANTIALIAS)
+    return img
+aspectRatio = 1.45
+folderPath = r'C:\Users\bgreen3\Desktop\Images' 
+minWidth = 220 # Set width for new images
+minHeight = int(220 * 1.45) # height based off of desired aspect ratio
+resized = []
+notResized = []
+error = []
+for fileName in os.listdir(folderPath):
+    if fileName.endswith('.jpg') or fileName.endswith('png'):
+        fullPath = folderPath + '\\' + fileName
+        img = Image.open(fullPath)
+        if img.width &lt; minWidth or img.height &lt; minHeight:
+           notResized.append(fileName) # print('Not resizing because dimensions are too small for ' + fileName)
+        else:    
+            # Below shouldn't be necessary, but I had an error where the img.width calculated the image size incorrect
+            # which caused the program to try to resize an image to be bigger than it was.
+            try: 
+                img = Resize(img)    
+                img.save(fileName) #Be careful. This saves over old image.
+                resized.append(fileName)       
+            except:
+                error.append(fileName)
+    else:
+        print('Not an image: so not resizing: ' + fileName)
+        notResized.append(fileName)</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1519,43 +1553,108 @@
     name = Application.InputBox("Name of the file is:", Default:=defaultName)
     If name = "False" Then Exit Sub
      ActiveWorkbook.ExportAsFixedFormat Type:=xlTypePDF, Filename:= _
-            "destinationFolder" &amp; name, Quality:=xlQualityStandard, _
+            destinationFolder &amp; name, Quality:=xlQualityStandard, _
             IncludeDocProperties:=True, IgnorePrintAreas:=False, OpenAfterPublish:= _
             False
 End Sub</t>
   </si>
   <si>
+    <t>Some extensions for EPPlus. Requires EPPlus be installed. I'll probably add a lot more as I create methods, but so far the two named range utilities were stolen from Jay Thumma.</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Jay Thumma</t>
+  </si>
+  <si>
+    <t>EPPlus Extensions</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-from PIL import Image
-import os
-def Resize(img):
-    img = img.resize((minWidth,minHeight), Image.ANTIALIAS)
-    return img
-aspectRatio = 1.45
-folderPath = r'C:\Users\bgreen3\Desktop\Images' 
-minWidth = 220 # Set width for new images
-minHeight = int(220 * 1.45) # height based off of desired aspect ratio
-resized = []
-notResized = []
-error = []
-for fileName in os.listdir(folderPath):
-    if fileName.endswith('.jpg') or fileName.endswith('png'):
-        fullPath = folderPath + '\\' + fileName
-        img = Image.open(fullPath)
-        if img.width &lt; minWidth or img.height &lt; minHeight:
-           notResized.append(fileName) # print('Not resizing because dimensions are too small for ' + fileName)
-        else:    
-            # Below shouldn't be necessary, but I had an error where the img.width calculated the image size incorrect
-            # which caused the program to try to resize an image to be bigger than it was.
-            try: 
-                img = Resize(img)    
-                img.save(fileName) #Be careful. This saves over old image.
-                resized.append(fileName)       
-            except:
-                error.append(fileName)
-    else:
-        print('Not an image: so not resizing: ' + fileName)
-        notResized.append(fileName)</t>
+   public class EPPlusUtils
+    {
+        public static int GetLastRow(ExcelWorksheet worksheet, string column = "A")
+        {
+            string cellAddress;
+            column = column.ToUpper();
+            var lastRow = worksheet.Dimension.End.Row;
+            while (lastRow &gt; 1)
+            {
+                cellAddress = column + Convert.ToString(lastRow);
+                if (!string.IsNullOrEmpty(worksheet.Cells[cellAddress].Text))
+                {
+                    return lastRow;
+                }
+                lastRow--;
+            }
+            return 1;
+        }
+        public static void SetNamedRangeValue(ExcelWorksheet worksheet, string namedRange, string value, bool workbookScope = false)
+        {
+            if (worksheet == null) return;
+            if (workbookScope)
+            {
+                if (worksheet.Workbook.Names.ContainsKey(namedRange)) worksheet.Workbook.Names[namedRange].Value = value;
+            }
+            else
+            {
+                if (worksheet.Names.ContainsKey(namedRange)) worksheet.Names[namedRange].Value = value;
+            }
+        }
+        public static string GetNamedRangeValue(ExcelWorksheet worksheet, string namedRange, bool checkWorkbook = false)
+        {
+            if (worksheet == null) return string.Empty;
+            var value = worksheet.Names.ContainsKey(namedRange) ? worksheet.Names[namedRange].Text : null;
+            if (string.IsNullOrEmpty(value) &amp;&amp; checkWorkbook)
+                return worksheet.Workbook.Names.ContainsKey(namedRange)
+                    ? worksheet.Workbook.Names[namedRange].Text
+                    : null;
+            return value;
+        }
+    }</t>
+  </si>
+  <si>
+    <t>CommentId</t>
+  </si>
+  <si>
+    <t>Reading the book "Behave" by Robert Sapolsky I came across a fascinating story. I am really fuzzy on the actual details, but the gist of it involves the tacit cooperation of enemies during trench warfare in WW1. 
+This cooperation consisted of agreements made by foot soldiers on opposing sides, under the noses of superior officers, for a period of pretend fighting. An example of such a truce would be if a French Sharpshooter unloaded a few well-aimed shots on some object conspicuously nearby to German soldiers to suggest that the sniper has the ability, but not the desire to take their life. In return a German sharpshooter could repay the gesture by also firing a few well-placed shots on an object near French soldiers. After this encounter word would spread amongst the foot soldiers that a truce has been established, leading to a period of lackluster effort and poorly aimed shots. This would continue until superior officer caught on and set things straight.</t>
+  </si>
+  <si>
+    <t>If you know with 100% certainty that a security is undervalued should you put all your money into it?
+I would think not. When you say "undervalued" you are saying that given this security's cash flows and the uncertainty of these cash flows its value should be X, but it currently trading for X - Y. Where Y is the dollar amount of the mispricing. At first pass this may seem to be an arbitrage opportunity of sorts and it typically is presented as such, but the only way this is a true arbitrage is if after buying at (X-Y) you could immediately sell for X. Then you may think that since your valuation is correct with 100% accuracy that eventually the mispricing will be corrected, and you will make a beautiful profit. This reasoning calls to mind Keynes famous quote "The market can remain irrational for longer than you can remain solvent." Or another familiar phrase of "Being too early is indistinguishable from being wrong." Both quotes make clear the possible complications and risk associated with such an investment.
+ I think being a little more concrete is probably beneficial and can help elucidate the point. 
+First, even if your valuation at time T is correct if that mispricing does not occur by time T+1 and you must sell at T+1 then you are screwed. This is the point Keynes was whining about. Although you were correct, you were not able to cash out on your brilliance before the day of reckoning so your insight went to waste. 
+Another possibility is that at time T+1 the valuation has changed just because of the uncertainty of life. Events in the world have changed and now you again accurately value the security, but unfortunately its value has decreased by Z dollars where Z&gt;Y. In this case your valuation is now lower than the market value you purchased at! To compound on these tough circumstances, imagine the market suddenly realizes its mistake and values the security at the correct value of X-Z. In this case even though you were 100% correct you were still screwed. 
+The conclusion I must take away is that diversification is paramount to investment success. The only way to assure your success, assuming you can have the skill to consistently identify mispricing's is if would be if you can bet on hundreds of these mispricing's throughout your life so that the variance washes out and your average profit is in fact (X-Y).</t>
+  </si>
+  <si>
+    <t>To briefly touch on yesterday's issue, assuming that you should not invest all of your money into that one mispriced security how much money should you invest?
+Probably the easiest way to think about it for me, at least initially, would be to use a standard mean-variance framework. Essentially you do all the normal stuff: using data on expected returns, variances, and covariances you construct a portfolio with the highest possible sharp ratio and invest in that portfolio however much your risk preferences dictate. The only real change needed to the framework is that you adjust the expected return on the mispriced security to account for the mispricing. Would you adjust the variance and covariance estimates? I don't know. Obviously, the implementation of this would be trickier and there are surely nuances that I am ignoring in this quick solution, but I think this is probably a decent way to at least begin to think of how much to allocate in your portfolio. Only problem is that it doesn't have a "feel-good" intuition to back it up really, but that tends to be the case using any methodology that isn't strictly fundamental/ story driven.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are small sized money managers or big preferred? Sector specific or broad?
+Probably the commonsense view on this matter is that a sector specific fund would be preferred to one that juggles a wide variety of investment opportunities. This view follows straightforward from the idea that if they spend all their time analyzing a narrow topic then the expertise, they will develop in that area will be extreme allowing them to generate alpha. Make sense obviously, but I do tend to lean towards the views of the generalist than specialist. Being a generalist can usually give you unique insight into specific areas because you are able to access a more diverse set of mental models based on your eclectic knowledge base. I would also think that being a specialist can make you a bit myopic to new points of view and you may get bogged down in the details while losing focus on the broader perspective. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently reading CFA level 2 economic material. In particular the discussion on economic growth has stimulated a lot of thought. There is mention of the obvious, but I think not frequently discussed concept of corporate profits as a percent of GDP. Typically you think that aggregate earnings for companies would grow in stride with the economy as whole, but there can certainly be a divergance between earnings growth and GDP if there is a shift in the share of profits that companies' claim from total GDP. Graph below shows how this metric has evolved over time. 
+&lt;img&gt;/Images/BlogPics/FREDCorporateProfits.png&lt;img&gt; 
+What drives this number? Corporate power? Unions? Social sentiment? Composition of stock ownership? Labor skill levels? Physical capital? Seems like it would be a pretty cool variable to understand on a deep level. Could potentially facilitate comprehending of short to mid-term market movements. Probably would not be as useful for lengthy forecast as presumably there is a long run equilibrium value.
+Completely unrelated, but today I also heard the best analogy so far for what classes are. Memory on your computer is a pile of cookie dough. The class is a cookie cutter. An instance of the class means you just take a scoop of the cookie dough and apply the cookie cutter to it. Then with that individual template you can add all sorts of sprinkles and icings or whatever bells and whistles you want. Credit for this description goes to Scott Allen.
+</t>
+  </si>
+  <si>
+    <t>https://www.tutorialsteacher.com/linq/linq-tutorials</t>
+  </si>
+  <si>
+    <t>TutorialsTeacher</t>
+  </si>
+  <si>
+    <t>C# and Python tutorials. Has good guides for LINQ in C#</t>
+  </si>
+  <si>
+    <t>C#;Programming;Python;LINQ</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1634,6 +1733,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1949,6 +2049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5872507-66CB-433C-B11F-B7E6549B1933}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A143"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2733,9 +2834,6 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2756,9 +2854,6 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2779,9 +2874,6 @@
       <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2800,9 +2892,6 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5">
         <v>4</v>
       </c>
     </row>
@@ -2825,9 +2914,6 @@
       <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2848,9 +2934,6 @@
       <c r="F7" t="s">
         <v>4</v>
       </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2871,9 +2954,6 @@
       <c r="F8" t="s">
         <v>4</v>
       </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2894,9 +2974,6 @@
       <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2917,9 +2994,6 @@
       <c r="F10" t="s">
         <v>4</v>
       </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2940,9 +3014,6 @@
       <c r="F11" t="s">
         <v>4</v>
       </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2963,9 +3034,6 @@
       <c r="F12" t="s">
         <v>4</v>
       </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2986,9 +3054,6 @@
       <c r="F13" t="s">
         <v>4</v>
       </c>
-      <c r="G13">
-        <v>12</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3009,9 +3074,6 @@
       <c r="F14" t="s">
         <v>4</v>
       </c>
-      <c r="G14">
-        <v>13</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3032,9 +3094,6 @@
       <c r="F15" t="s">
         <v>4</v>
       </c>
-      <c r="G15">
-        <v>14</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3055,11 +3114,8 @@
       <c r="F16" t="s">
         <v>4</v>
       </c>
-      <c r="G16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3078,11 +3134,8 @@
       <c r="F17" t="s">
         <v>4</v>
       </c>
-      <c r="G17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3101,11 +3154,8 @@
       <c r="F18" t="s">
         <v>4</v>
       </c>
-      <c r="G18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3124,11 +3174,8 @@
       <c r="F19" t="s">
         <v>4</v>
       </c>
-      <c r="G19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3147,11 +3194,8 @@
       <c r="F20" t="s">
         <v>4</v>
       </c>
-      <c r="G20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3170,11 +3214,8 @@
       <c r="F21" t="s">
         <v>4</v>
       </c>
-      <c r="G21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3193,11 +3234,8 @@
       <c r="F22" t="s">
         <v>4</v>
       </c>
-      <c r="G22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3216,11 +3254,8 @@
       <c r="F23" t="s">
         <v>4</v>
       </c>
-      <c r="G23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3239,11 +3274,8 @@
       <c r="F24" t="s">
         <v>4</v>
       </c>
-      <c r="G24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3262,11 +3294,8 @@
       <c r="F25" t="s">
         <v>4</v>
       </c>
-      <c r="G25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3285,11 +3314,8 @@
       <c r="F26" t="s">
         <v>4</v>
       </c>
-      <c r="G26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3308,11 +3334,8 @@
       <c r="F27" t="s">
         <v>4</v>
       </c>
-      <c r="G27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3331,11 +3354,8 @@
       <c r="F28" t="s">
         <v>4</v>
       </c>
-      <c r="G28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3354,11 +3374,8 @@
       <c r="F29" t="s">
         <v>4</v>
       </c>
-      <c r="G29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3377,11 +3394,8 @@
       <c r="F30" t="s">
         <v>4</v>
       </c>
-      <c r="G30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3400,11 +3414,8 @@
       <c r="F31" t="s">
         <v>4</v>
       </c>
-      <c r="G31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3423,11 +3434,8 @@
       <c r="F32" t="s">
         <v>4</v>
       </c>
-      <c r="G32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3446,11 +3454,8 @@
       <c r="F33" t="s">
         <v>4</v>
       </c>
-      <c r="G33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3469,11 +3474,8 @@
       <c r="F34" t="s">
         <v>4</v>
       </c>
-      <c r="G34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3492,11 +3494,8 @@
       <c r="F35" t="s">
         <v>4</v>
       </c>
-      <c r="G35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3515,11 +3514,8 @@
       <c r="F36" t="s">
         <v>4</v>
       </c>
-      <c r="G36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3538,11 +3534,8 @@
       <c r="F37" t="s">
         <v>4</v>
       </c>
-      <c r="G37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3561,11 +3554,8 @@
       <c r="F38" t="s">
         <v>4</v>
       </c>
-      <c r="G38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3584,11 +3574,8 @@
       <c r="F39" t="s">
         <v>4</v>
       </c>
-      <c r="G39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3607,11 +3594,8 @@
       <c r="F40" t="s">
         <v>4</v>
       </c>
-      <c r="G40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3630,11 +3614,8 @@
       <c r="F41" t="s">
         <v>4</v>
       </c>
-      <c r="G41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3653,11 +3634,8 @@
       <c r="F42" t="s">
         <v>4</v>
       </c>
-      <c r="G42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3676,11 +3654,8 @@
       <c r="F43" t="s">
         <v>4</v>
       </c>
-      <c r="G43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3699,11 +3674,8 @@
       <c r="F44" t="s">
         <v>4</v>
       </c>
-      <c r="G44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3722,11 +3694,8 @@
       <c r="F45" t="s">
         <v>4</v>
       </c>
-      <c r="G45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3745,11 +3714,8 @@
       <c r="F46" t="s">
         <v>4</v>
       </c>
-      <c r="G46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3768,11 +3734,8 @@
       <c r="F47" t="s">
         <v>4</v>
       </c>
-      <c r="G47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3791,11 +3754,8 @@
       <c r="F48" t="s">
         <v>4</v>
       </c>
-      <c r="G48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3814,11 +3774,8 @@
       <c r="F49" t="s">
         <v>4</v>
       </c>
-      <c r="G49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3837,11 +3794,8 @@
       <c r="F50" t="s">
         <v>4</v>
       </c>
-      <c r="G50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3860,11 +3814,8 @@
       <c r="F51" t="s">
         <v>4</v>
       </c>
-      <c r="G51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3883,11 +3834,8 @@
       <c r="F52" t="s">
         <v>4</v>
       </c>
-      <c r="G52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3906,11 +3854,8 @@
       <c r="F53" t="s">
         <v>4</v>
       </c>
-      <c r="G53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3929,11 +3874,8 @@
       <c r="F54" t="s">
         <v>4</v>
       </c>
-      <c r="G54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3952,11 +3894,8 @@
       <c r="F55" t="s">
         <v>4</v>
       </c>
-      <c r="G55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3975,11 +3914,8 @@
       <c r="F56" t="s">
         <v>4</v>
       </c>
-      <c r="G56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3998,11 +3934,8 @@
       <c r="F57" t="s">
         <v>4</v>
       </c>
-      <c r="G57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4021,11 +3954,8 @@
       <c r="F58" t="s">
         <v>4</v>
       </c>
-      <c r="G58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4044,11 +3974,8 @@
       <c r="F59" t="s">
         <v>4</v>
       </c>
-      <c r="G59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4067,11 +3994,8 @@
       <c r="F60" t="s">
         <v>4</v>
       </c>
-      <c r="G60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4090,11 +4014,8 @@
       <c r="F61" t="s">
         <v>4</v>
       </c>
-      <c r="G61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4113,11 +4034,8 @@
       <c r="F62" t="s">
         <v>4</v>
       </c>
-      <c r="G62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4136,11 +4054,8 @@
       <c r="F63" t="s">
         <v>4</v>
       </c>
-      <c r="G63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4159,11 +4074,8 @@
       <c r="F64" t="s">
         <v>4</v>
       </c>
-      <c r="G64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4182,11 +4094,8 @@
       <c r="F65" t="s">
         <v>4</v>
       </c>
-      <c r="G65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4205,11 +4114,8 @@
       <c r="F66" t="s">
         <v>4</v>
       </c>
-      <c r="G66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4228,11 +4134,8 @@
       <c r="F67" t="s">
         <v>4</v>
       </c>
-      <c r="G67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4251,11 +4154,8 @@
       <c r="F68" t="s">
         <v>4</v>
       </c>
-      <c r="G68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4274,11 +4174,8 @@
       <c r="F69" t="s">
         <v>4</v>
       </c>
-      <c r="G69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4297,11 +4194,8 @@
       <c r="F70" t="s">
         <v>4</v>
       </c>
-      <c r="G70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4320,11 +4214,8 @@
       <c r="F71" t="s">
         <v>4</v>
       </c>
-      <c r="G71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4343,11 +4234,8 @@
       <c r="F72" t="s">
         <v>4</v>
       </c>
-      <c r="G72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4366,11 +4254,8 @@
       <c r="F73" t="s">
         <v>4</v>
       </c>
-      <c r="G73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4389,11 +4274,8 @@
       <c r="F74" t="s">
         <v>4</v>
       </c>
-      <c r="G74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4412,11 +4294,8 @@
       <c r="F75" t="s">
         <v>4</v>
       </c>
-      <c r="G75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4435,11 +4314,8 @@
       <c r="F76" t="s">
         <v>4</v>
       </c>
-      <c r="G76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4458,11 +4334,8 @@
       <c r="F77" t="s">
         <v>4</v>
       </c>
-      <c r="G77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4481,11 +4354,8 @@
       <c r="F78" t="s">
         <v>4</v>
       </c>
-      <c r="G78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4504,11 +4374,8 @@
       <c r="F79" t="s">
         <v>4</v>
       </c>
-      <c r="G79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4527,11 +4394,8 @@
       <c r="F80" t="s">
         <v>4</v>
       </c>
-      <c r="G80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4550,11 +4414,8 @@
       <c r="F81" t="s">
         <v>4</v>
       </c>
-      <c r="G81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4573,11 +4434,8 @@
       <c r="F82" t="s">
         <v>4</v>
       </c>
-      <c r="G82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4596,11 +4454,8 @@
       <c r="F83" t="s">
         <v>4</v>
       </c>
-      <c r="G83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4619,11 +4474,8 @@
       <c r="F84" t="s">
         <v>4</v>
       </c>
-      <c r="G84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4642,11 +4494,8 @@
       <c r="F85" t="s">
         <v>4</v>
       </c>
-      <c r="G85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4665,11 +4514,8 @@
       <c r="F86" t="s">
         <v>4</v>
       </c>
-      <c r="G86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4688,11 +4534,8 @@
       <c r="F87" t="s">
         <v>4</v>
       </c>
-      <c r="G87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4711,11 +4554,8 @@
       <c r="F88" t="s">
         <v>4</v>
       </c>
-      <c r="G88">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4734,11 +4574,8 @@
       <c r="F89" t="s">
         <v>4</v>
       </c>
-      <c r="G89">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4757,11 +4594,8 @@
       <c r="F90" t="s">
         <v>4</v>
       </c>
-      <c r="G90">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4780,11 +4614,8 @@
       <c r="F91" t="s">
         <v>4</v>
       </c>
-      <c r="G91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4803,11 +4634,8 @@
       <c r="F92" t="s">
         <v>4</v>
       </c>
-      <c r="G92">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4826,11 +4654,8 @@
       <c r="F93" t="s">
         <v>4</v>
       </c>
-      <c r="G93">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4849,11 +4674,8 @@
       <c r="F94" t="s">
         <v>4</v>
       </c>
-      <c r="G94">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4872,11 +4694,8 @@
       <c r="F95" t="s">
         <v>4</v>
       </c>
-      <c r="G95">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4895,11 +4714,8 @@
       <c r="F96" t="s">
         <v>4</v>
       </c>
-      <c r="G96">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4918,11 +4734,8 @@
       <c r="F97" t="s">
         <v>4</v>
       </c>
-      <c r="G97">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4941,11 +4754,8 @@
       <c r="F98" t="s">
         <v>4</v>
       </c>
-      <c r="G98">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4964,11 +4774,8 @@
       <c r="F99" t="s">
         <v>4</v>
       </c>
-      <c r="G99">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4987,11 +4794,8 @@
       <c r="F100" t="s">
         <v>4</v>
       </c>
-      <c r="G100">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5010,11 +4814,8 @@
       <c r="F101" t="s">
         <v>4</v>
       </c>
-      <c r="G101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5033,11 +4834,8 @@
       <c r="F102" t="s">
         <v>4</v>
       </c>
-      <c r="G102">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5056,11 +4854,8 @@
       <c r="F103" t="s">
         <v>4</v>
       </c>
-      <c r="G103">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5079,11 +4874,8 @@
       <c r="F104" t="s">
         <v>4</v>
       </c>
-      <c r="G104">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5102,11 +4894,8 @@
       <c r="F105" t="s">
         <v>4</v>
       </c>
-      <c r="G105">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5125,11 +4914,8 @@
       <c r="F106" t="s">
         <v>4</v>
       </c>
-      <c r="G106">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5147,9 +4933,6 @@
       </c>
       <c r="F107" t="s">
         <v>4</v>
-      </c>
-      <c r="G107">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5159,9 +4942,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CB60D4-93F8-4068-A531-8A581990591B}">
-  <dimension ref="A1:F37"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5172,7 +4958,7 @@
     <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>435</v>
       </c>
@@ -5188,11 +4974,8 @@
       <c r="E1" t="s">
         <v>439</v>
       </c>
-      <c r="F1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5208,11 +4991,8 @@
       <c r="E2" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5228,11 +5008,8 @@
       <c r="E3" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5248,11 +5025,8 @@
       <c r="E4" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F4">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5268,11 +5042,8 @@
       <c r="E5" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F5">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5288,11 +5059,8 @@
       <c r="E6" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F6">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5308,11 +5076,8 @@
       <c r="E7" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F7">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5328,11 +5093,8 @@
       <c r="E8" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="F8">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5348,11 +5110,8 @@
       <c r="E9" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F9">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5368,11 +5127,8 @@
       <c r="E10" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F10">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5388,11 +5144,8 @@
       <c r="E11" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F11">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5408,11 +5161,8 @@
       <c r="E12" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F12">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5428,11 +5178,8 @@
       <c r="E13" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F13">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5448,11 +5195,8 @@
       <c r="E14" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F14">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5468,11 +5212,8 @@
       <c r="E15" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F15">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5488,11 +5229,8 @@
       <c r="E16" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="F16">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5508,11 +5246,8 @@
       <c r="E17" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="F17">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5528,11 +5263,8 @@
       <c r="E18" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F18">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5548,11 +5280,8 @@
       <c r="E19" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F19">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5568,11 +5297,8 @@
       <c r="E20" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="F20">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5588,11 +5314,8 @@
       <c r="E21" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F21">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5608,11 +5331,8 @@
       <c r="E22" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F22">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5628,11 +5348,8 @@
       <c r="E23" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F23">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5648,11 +5365,8 @@
       <c r="E24" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F24">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5668,11 +5382,8 @@
       <c r="E25" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F25">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5688,11 +5399,8 @@
       <c r="E26" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F26">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5708,11 +5416,8 @@
       <c r="E27" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F27">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5728,11 +5433,8 @@
       <c r="E28" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F28">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5748,11 +5450,8 @@
       <c r="E29" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F29">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5768,11 +5467,8 @@
       <c r="E30" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F30">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5788,11 +5484,8 @@
       <c r="E31" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F31">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5808,11 +5501,8 @@
       <c r="E32" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F32">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5828,11 +5518,8 @@
       <c r="E33" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F33">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5848,11 +5535,8 @@
       <c r="E34" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F34">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5868,11 +5552,8 @@
       <c r="E35" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F35">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5888,11 +5569,8 @@
       <c r="E36" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F36">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5908,8 +5586,22 @@
       <c r="E37" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F37">
-        <v>142</v>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>478</v>
+      </c>
+      <c r="C38" t="s">
+        <v>479</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -5943,6 +5635,7 @@
     <hyperlink ref="D35" r:id="rId27" xr:uid="{05F51246-61DC-48FA-8012-AF76340B0A93}"/>
     <hyperlink ref="D36" r:id="rId28" xr:uid="{3C6878E1-A182-4850-9D63-0A142A4E7ADC}"/>
     <hyperlink ref="D37" r:id="rId29" xr:uid="{F9290D5F-D8C2-4564-A9F4-780DF883D011}"/>
+    <hyperlink ref="D38" r:id="rId30" xr:uid="{A45DA7FD-FBA9-496B-9CAA-E788C7619972}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5950,20 +5643,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF8F07A-3B88-4624-9A6F-E57A75B6D76A}">
-  <dimension ref="A1:D6"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>440</v>
       </c>
@@ -5976,8 +5667,11 @@
       <c r="D1" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5987,8 +5681,11 @@
       <c r="C2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5998,8 +5695,11 @@
       <c r="C3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6009,8 +5709,11 @@
       <c r="C4" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6020,8 +5723,11 @@
       <c r="C5" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="11" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6030,6 +5736,9 @@
       </c>
       <c r="C6" t="s">
         <v>450</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -6039,11 +5748,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8234FEF-28CB-49C0-B590-3C8C9AA27600}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6115,7 +5823,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>461</v>
@@ -6133,7 +5841,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>458</v>
@@ -6149,7 +5857,24 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E6" t="s">
+        <v>468</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -6635,4 +6360,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F1BE16-01F5-4EB0-B335-6F5ED8A0D7E0}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wwwroot/Data/websiteDB.xlsx
+++ b/wwwroot/Data/websiteDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgreen3\Desktop\FunWithBrandt\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC448B5C-0520-46C4-9C38-885213AAB2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB11A966-C965-46EF-A24C-47720570CF48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E658BFBE-975E-47B3-8C51-826238D4C145}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E658BFBE-975E-47B3-8C51-826238D4C145}"/>
   </bookViews>
   <sheets>
     <sheet name="Posts" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="530">
   <si>
     <t>50 Economics Classics: Your shortcut to the most important ideas on capitalism; finance; and the global economy</t>
   </si>
@@ -1559,9 +1559,6 @@
 End Sub</t>
   </si>
   <si>
-    <t>Some extensions for EPPlus. Requires EPPlus be installed. I'll probably add a lot more as I create methods, but so far the two named range utilities were stolen from Jay Thumma.</t>
-  </si>
-  <si>
     <t>C#</t>
   </si>
   <si>
@@ -1655,6 +1652,288 @@
   </si>
   <si>
     <t>C#;Programming;Python;LINQ</t>
+  </si>
+  <si>
+    <t>I used this sub/function combo to apply the named ranges in a selected range in excel. So it changes all formula references to excel cells to references to named ranges if they are applicable. I do remember having a lot of difficulty working with named ranges in vba so hopefully it still works and doesn't cause trouble.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sub nameApply()
+    ' applies the names to each cell in selection using the names in the selection'
+    Dim num As Name, allNums() As String, nameRng As Range, cell As Range
+    Excel.Application.Calculation = xlCalculationManual
+    Set nameRng = Selection
+    allNums = nameGrab() 'gets all names in selection as an array'
+    For Each cell In nameRng
+        On Error Resume Next
+        cell.ApplyNames Names:=allNums
+        On Error GoTo 0
+    Next cell
+    Excel.Application.Calculation = xlCalculationAutomatic
+End Sub
+Function nameGrab()
+    'returns an array of all names in selection'
+    Dim num As Name, allNums() As String, nameRng As Range, cell As Range, temp As String
+    Set nameRng = Selection
+    i = 0
+    ReDim allNums(0)
+    For Each cell In nameRng
+        On Error Resume Next
+        temp = cell.Name.Name
+        On Error GoTo 0
+            If allNums(0) = "" Then
+                If temp &lt;&gt; "" Then
+                    allNums(0) = temp
+                End If
+            Else:
+                If temp &lt;&gt; "" Then
+                    i = i + 1
+                    ReDim Preserve allNums(i)
+                    allNums(i) = temp
+                End If
+            End If
+        temp = ""
+    Next cell
+    nameGrab = allNums
+End Function</t>
+  </si>
+  <si>
+    <t>Applying Excel Named Ranges to Formulas</t>
+  </si>
+  <si>
+    <t>Some extensions for EPPlus. Requires EPPlus be installed. I'll probably add a lot more as I create methods for the class. The two named range utilities were stolen from Jay Thumma.</t>
+  </si>
+  <si>
+    <t>Sorting Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Function SortArray(ray, Optional sliceNotNeeded As Boolean)
+    ' returns a 0 based 1 dimensional array'
+    Dim temp, raySize As Long
+    ' default is to slice the array into 1 dimension 0 based using RaySlice array'
+    'because most arrays will likely be pulled from worksheet cells which default to multidimension and base 1'
+    'option to not slice if you know you don not need it'
+    If sliceNotNeeded = False Then ray = RaySlice(ray)
+    raySize = UBound(ray)
+    For i = 0 To raySize ' look at each item at least once'
+        For x = i + 1 To raySize ' only look at items from current index to end as everything prior has been sorted already'
+            If ray(x) &lt; ray(i) Then ' swap the items if the second one has precedence'
+                temp = ray(x)
+                ray(x) = ray(i)
+                ray(i) = temp
+            End If
+        Next x
+    Next i
+    SortArray = ray
+End Function
+Function RaySlice(ray, Optional column As Long)
+    ' converts the ray arguement into a 0 based, 1 dimensional array'
+    ' with the column option specifying which column to return if there are multiple'
+    Dim temp, newRaySize As Long, lowerBound As Long, zeroBased As Boolean, newRay
+    lowerBound = LBound(ray, 1)
+    If lowerBound = 0 Then zeroBased = True
+    If DimensionCount(ray) &gt; 1 Then
+        If column = 0 Then column = LBound(ray, 2)  ' default colum should be the first'
+        If zeroBased Then
+            newRaySize = UBound(ray, 1)
+            ReDim newRay(newRaySize)
+            For i = 0 To newRaySize
+                newRay(i) = ray(i, column)
+            Next i
+        Else:
+            newRaySize = UBound(ray, 1) - 1
+            ReDim newRay(newRaySize)
+            For i = 0 To newRaySize
+                newRay(i) = ray(i + 1, column)
+            Next i
+        End If
+    Else
+        If zeroBased Then
+            newRaySize = UBound(ray)
+            ReDim newRay(newRaySize)
+            For i = 0 To newRaySize
+                newRay(i) = ray(i)
+            Next i
+        Else:
+            newRaySize = UBound(ray, 1) - 1
+            ReDim newRay(newRaySize)
+            For i = 0 To newRaySize
+                newRay(i) = ray(i + 1)
+            Next i
+        End If
+    End If
+    RaySlice = newRay
+End Function
+Function DimensionCount(item As Variant) As Integer
+    ' returns the number of dimensions of an array'
+    Dim i As Integer, x
+    On Error Resume Next
+    Do Until Err.Number &lt;&gt; 0
+     i = i + 1
+     x = UBound(item, i)
+    Loop
+    DimensionCount = i - 1
+End Function</t>
+  </si>
+  <si>
+    <t>Here are a few functions that are useful for working with arrays. These can be used to check the dimension of an array, to redimension an array into 1 dimension and zero based, and also to sort an array. Did not know it when I made this, but I think excel actually has built in functions for sorting arrays... So this was kind pointless.</t>
+  </si>
+  <si>
+    <t>https://www.pygame.org/docs/</t>
+  </si>
+  <si>
+    <t>Python; Programming; Pygame;</t>
+  </si>
+  <si>
+    <t>Documentation and tutorials for using python's Pygame library</t>
+  </si>
+  <si>
+    <t>Pygame</t>
+  </si>
+  <si>
+    <t>https://mortada.net/python-api-for-fred.html</t>
+  </si>
+  <si>
+    <t>Python; Programming; FRED</t>
+  </si>
+  <si>
+    <t>Mortada</t>
+  </si>
+  <si>
+    <t>Python package for working with FRED data</t>
+  </si>
+  <si>
+    <t>https://web.stanford.edu/group/csp/cs21/htmlcheatsheet.pdf</t>
+  </si>
+  <si>
+    <t>HTML;Web Development</t>
+  </si>
+  <si>
+    <t>HTML Cheatsheet</t>
+  </si>
+  <si>
+    <t>Standord</t>
+  </si>
+  <si>
+    <t>https://web.stanford.edu/group/csp/cs21/csscheatsheet.pdf</t>
+  </si>
+  <si>
+    <t>CSS CheatSheet</t>
+  </si>
+  <si>
+    <t>CSS;Web Development</t>
+  </si>
+  <si>
+    <t>https://ehmatthes.github.io/pcc_2e/cheat_sheets/cheat_sheets/</t>
+  </si>
+  <si>
+    <t>Eric Matthes</t>
+  </si>
+  <si>
+    <t>Python Cheatsheets</t>
+  </si>
+  <si>
+    <t>Python; Programming</t>
+  </si>
+  <si>
+    <t>https://inventwithpython.com/hackingciphers.pdf</t>
+  </si>
+  <si>
+    <t>Project Guten</t>
+  </si>
+  <si>
+    <t>https://www.gutenberg.org/</t>
+  </si>
+  <si>
+    <t>This website has a bunch of fee ebooks in multiple differnet formats</t>
+  </si>
+  <si>
+    <t>Another free Python book by Al Sweigart. It's about using Python to create and break ciphers which is fun.</t>
+  </si>
+  <si>
+    <t>https://github.com/dwyl/english-words</t>
+  </si>
+  <si>
+    <t>Dictionary</t>
+  </si>
+  <si>
+    <t>dwyl</t>
+  </si>
+  <si>
+    <t>Github account that has text files with a bunch of words in them</t>
+  </si>
+  <si>
+    <t>https://usafacts.org/</t>
+  </si>
+  <si>
+    <t>This looks really cool</t>
+  </si>
+  <si>
+    <t>USA Facts</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>The following are notes I made while reading the book "The Ascent of Money: A Financial History of the World" by Nial Ferguson:
+Ideas sparked from the first few chapters.
+Finance amplifies our natural differences. Leverage of our innate talents and abilities. Finance moralizes. It made you more likely to trade with a stranger in the forest than bash his head in. To understand finance, you need to understand either the problems it solves, or service it provides, or utility it delivers.
+One idea I found enjoyable and thought provoking is that finance amplifies our innate talents and abilities. Leverage! 
+I certainly enjoyed the notion that commerce essentially acted as a moralizer for civilization. In the olden days if you were living your life as a hunter-gatherer exploring the jungle and you happened across a stranger in the forest a probable outcome from such an encounter is that one of you winds up dead. Along comes the notion of trading and instead of violence your first thought turns toward a mutually beneficial exchange of goods! People's desire for trade facilitates more amicable interactions among strangers. 
+Another way the engine of finance powered society forward is through the introduction of record keeping which served as the origins for written language and record keeping. The first documents created were essentially accounting records business owners used to keep track of their assets and business transactions. Who owed who what and how much and when and where and such. It was upon this foundation that written language was born as people increasingly appreciated the benefits of documentation. I don't think it is all that necessary to delve into a formal appreciation for the impact language has had on society... but it is a lot.</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>The Ascent of Money</t>
+  </si>
+  <si>
+    <t>The following are notes I made while reading the book "Intuition: Knowing Beyond Logic" by Osho:
+On the first page I knew reading the book was going to be a challenge for me because it starts off explaining the idea that intuition is not something that can be learned, but just sort of felt. My own view has generally been quite the opposite and practically everything I do is done with the end goal of developing and honing my intuition to become a more effective and efficient tool. For example, think about reading. Like most people I don't think I remember most of what I read except for perhaps the most salient facts or stories, but that is not the true benefit of broad and deep reading in my opinion. Through extensive reading my hope is to continually train my intuition by providing it with more and more ideas and concepts that I may not remember in their entirety, but the fundamentals of the ideas will still influence the way I think. To state in another way, I hope to use my system 2 brain to feed my body with enough ideas so that my system 1 brain which is much quicker and more efficient can recognize patterns it has seen before. The purpose really being that there is great utility in having a high-powered system 1 thinking as there are a lot of situations where speed is paramount, and first gut reactions are beneficial. I believe Patrick Oshaughnessy described intuition as nothing more than pattern recognition and that the recognition software your brain is equipped with has been shaped by the experiences you have.  A fun and fictional example of pattern recognition at work is in the stories of Sherlock Holmes that I have been reading. Sherlock has spent and still spends a vast majority of his time reading the reports of every criminal case he can get his hands on and reads newspaper reports of every mysterious case there is. His rational is that humans are similar enough that the crimes we commit are generally just variations of others that have occurred before. This means that for the vast majority of cases he sees he can identify what has occurred nearly instantly after gathering the data from the crime. Similar I think to how Warren Buffet is able to make 2 minute, multibillion dollar deals because he has spent his entire life reading about businesses so when a seemingly new opportunity comes before him it can seem ridiculous that he is able to make such snap decisions. In reality that snap decision is founded on years of preparation and knowledge about similar deals.
+It appears I am getting a little off topic here and hopefully my initial disagreements are not simply a matter of semantics. Perhaps what Osho defines as intuition is different from my understanding. It may be that when I use the word intuition, I am referring to just an altered form of what Osho thinks of as the disdainful 'intellect'. I think this book is going to be quite difficult for me to internalize in the way that Osho would like because he describes intuition as something that cannot be understood by intelligence and if I know myself I am going to try to reason through the entire book and likely miss the point of what he is trying to say. 
+So, my post read thoughts are not too much different than initial feelings. I guess you could say that my intuition told me it would not really be a book for me, and it was correct. Haha. Maybe I will be able to appreciate this book and the concepts contained if I re-read it at some point later in life when I have more experiences, but for now, it just did not click. I need to reason my way through everything and that is not something generally encouraged by my man Osho.</t>
+  </si>
+  <si>
+    <t>Intuition</t>
+  </si>
+  <si>
+    <t>Hedging Market Exposures</t>
+  </si>
+  <si>
+    <t>The following are notes I made while reading the book "Hedging Market Exposures: Identifying and Managing Market Risks" by Bychuk and Brian Haughey:
+Page two and this book already has me thinking. It is discussing differences between intrinsic value and extrinsic value (the value the market assigns to an asset). It discusses the danger of assigning an intrinsic value to an asset with no cash flows. This is something that has always resonated with me as I was indoctrinated early on with the valuation mindset that something is only worthwhile if it produces cash flows. My thoughts here being that without cash flows to act as gravity for the asset you are only playing a pricing game and relying on the greater fool theory to make a return. There is a great deal of arrogance here on my part stemming from the belief that I, with proper diligence, could estimate these cash flows accurately and thus earn an attractive return regardless of what the short-term focused "irrational market" believed. With this arrogance I said I did not want to be subject to the whims of market fads and fancies, but instead could count on my own intelligence. But this book has stirred the idea in me that I should at least think about a way to quantify future prices because extrinsic value may never align with intrinsic value. Supply and Demand equations? Some psychological interpretations? Technical analysis? I dunno, but I should certainly give these thoughts more weight as opposed to just scoffing at the idea of the pricing game, because it may be the only game in town. 
+I think this books explanation of the mechanics of how Central Banks work is one of the best I have read. They seem to understand the market-based mechanics through which central banks work as opposed to just parroting on about how central banks are deciding to move interest rates around.  Pg. 8-9.
+One beef I have is when the authors say it is foolish for portfolio managers to sacrifice long term performance for short term gains. Obviously as an idea I support this enthusiastically, but the example they give seems incorrect to me. They say it is unwise for institutional funds to lend securities they own to other firms or individuals for the purpose of short selling because it is stupid to support the actions of those seeking to depress the price of an asset you own. At first pass this sounds like a reasonable statement, but not after deeper thought. First issue is that I would imagine that it is extremely unlikely that the short sellers you are lending to will be shorting enough securities to have any sort of impact on the actual price of the security. Perhaps this is wrong, but I think I heard somewhere that a general rule of thumb was that you can trade 5% of the daily volume without impacting price. Highly doubtful that you are lending 5% of the daily volume of a security. Second issue is that even if they do impact the price so what? If you own the asset in your portfolio clearly you have a positive view on future returns of the asset and expect that the price will increase. (I guess technically this doesn't have to be true if the negatively correlated with the rest of your portfolio and the diversification benefits are enough to compensate you for the negative expected return). So, what happens if the short sellers affect the price? Maybe the asset declines in value by a whopping 10% (doubt it). But if you are confident in your analysis that the security was previously below its intrinsic value you are either indifferent or happy with this outcome from an objective standpoint. You can be indifferent in that you are confident this is just a short-term market irrationality which will inevitably correct itself in the long term. Alternatively, you may be thrilled because now you can purchase the security at a steeper discount than before and increase your expected return! In affect you created a bargain for yourself by encouraging the short sellers! I would say that this strategy is actually the opposite of what the authors propose. You are sacrificing short term returns and increasing volatility, but at the least having no effect on the long term outcome and actually increasing your total return on the investment because you are collecting income from the short sellers for the privilege of allowing them to borrow your asset. 
+I really liked the idea that an asset model should not just "spit out" one fundamental price, but instead provide a confidence interval for the estimate. This is a problem I typically have with analyst reports. It seems so absurd to me to have price targets to the decimal point and pretend like that's THE value of the asset that the market price must converge to. I believe Michael Mauboussin said one of his successful hedge fund friends forbids that their analyst give target prices for stocks and instead only allows them to discuss stock prices on an expected value approach with a whole probability distribution. I would add a little extra touch and say whatever your initial 95% confidence interval is you should increase it because as behavioral finance teaches us we are overconfident in our estimates. 
+I also really like the idea that one of the great benefits of having a quantitative financial model is so that you can get a much better feel for the sensitivity of an asset to changes in the essential input parameters. The beauty of closed formed expressions is in their interpretability. An example I think most people can get behind and see the utility of is just a dividend discount model. It is a wonderful tool for helping you conceptualize how a stock can move and the magnitude of such moves. Just vary either the dividend, the growth rate, or required rate of return and observe. 
+A concept that I believe I would struggle with immensely if I was forced to actually implement it is to treat my model as a "black box" meaning that the inputs and parameters are uninterpretable. I just don't think I would be able to use a model I don't understand as it would make me too uncomfortable. Listening to Patrick's podcast I believe some of the guest he interviews discussed that this was a problem that resulted from machine learning where their algorithms produced models, but there would be 1000 variables and it was meaningless to interpret them. The pleasure of analysis is in the interpretation! I like to think I am pragmatic and that I will do what needs to be done regardless of how I feel, but I would struggle immensely relying on a model where I didn't understand the levers that impact the output.</t>
+  </si>
+  <si>
+    <t>More Than You Know</t>
+  </si>
+  <si>
+    <t>Descartes Error</t>
+  </si>
+  <si>
+    <t>The following are notes I made while reading the book "Descartes Error" by Antonio Damasio:
+So somatic markers are pretty interesting. Unfortunately I do not know it well enough to give an explanation I am confident in, but I generally think about somatic markers simply as emotional impressions your mind/body/brain makes on certain events that guides future decisions or thoughts made by your mind/body/brain.
+A good example I think to illustrate the benefits of somatic marking is the study done where participants were put through a simulated gambling game. There are some nuances there, but the basic design of the game is that a participant has to choose a card between multiple card decks repeatedly and the payoff they receive is dependent on the card they draw. Some of the decks are weighted with positive expected value outcome and some will yield a negative expected outcome if repeated cards are chosen.  The payoffs can be complex enough and their responses are required fast enough so that the participants cannot rationally or analytically think through which deck has the positive expected outcome, but the fun result is that people learn rather quickly which decks are optimal and begin choosing from those decks exclusively. The theory being that their somatic markers have left negative impressions on the shitty decks and positive vibes on the better decks which leads to optimal decision making. People with certain emotional brain deficiencies, but who are still intelligent and analytically capable fail at this task because they do not benefit from the somatic markings.
+Prospect theory is pretty popular and the crux of it is that losses hurt more than gains and therefore humans are loss averse.
+The connection I was pondering would be something along the lines of: Prospect theory tells us how we can expect to feel and the somatic marker hypothesis tells us how we internalize those feelings and how they are incorporated into our decision making.
+Throughout our life as we experience gains and losses in life more generally, but specifically with our investments our somatic markers are making constant impressions on us that impact our subsequent choices. Every time we experience a positive return because of a decision we made that decision is marked positively which is cool, but when we have bad decisions these are given strong negative markings that carry more weight than the positives. The importance these markers have is that they shape our future thinking. The somatic markers are used as a first pass filter for our brain to weed out a lot of the noise which allows us to focus on a subset of all possible thoughts. At first our thoughts are only exposed to things that have passed this first pass filter and if we want to dig further we have to make a very concerted effort to broaden our thinking which is not natural for most people. I think the importance and impact of these markings should be obvious because they literally shape our thoughts.
+A hypothetical example of somatic marking at work could be people's general attitude towards the stock market. Think about a young, intelligent professional, possibly an engineering graduate with a decent job who was 27 in the year 2000. Let's assume they were a disciplined individual who saved more than they spent over the first 4 years of their professional careers and invested their excess money into the stock market like a responsible young adult because that is what their advisor told them to do. Unfortunately shit hit the fan and things went bust. Perhaps this individual even had the majority of their portfolio in tech stocks because their advisor said they were young and should assume more risk. The unfortunate consequence is that this individual lost over 60% of their recently acquired wealth. Obviously, this would be a bummer, but the real lasting consequence is the impression this experience left on said person. Prospect theory tells us that they were traumatized by this drawdown and the somatic marker hypothesis says that this event was ingrained deep into their psyche. This person most likely now holds a deep bias against the stock market and will most likely not invest again for a while if ever. 
+So, I don't know if that example really exemplifies somatic marking at work in the way I was originally thinking, so that's my bad. I was thinking more along smaller/frequent decisions individuals make that are more easily driven through emotional impressions so I should try to think of more examples.
+But I guess I would say one of the main ideas that I should flesh out a bit more here is that context is everything as usual. Somatic marking can be powerful and useful in some situations and yet produce sub-optimal outcomes in others. 
+I know I am probably incorrectly applying both prospect theory and somatic marking, but it was fun to think about anyway.</t>
+  </si>
+  <si>
+    <t>The following are notes I made while reading the book "More than You Know: finding Financials Wisdom in Unconventional Places" by Antonio Damasio:
+First and foremost: Michael Mauboussin is my hero. He's just great.
+He gives a good example on the danger of expertise. The 10,000 hours rule which was discovered by Dr. Anders Ericsson and popularized by Malcom Gladwell basically said that if you practice at something for 10,000 hours you become an expert. There was more going on there both Gladwell and Ericsson have pushed back at the idea that it is that simple, but that is generally what is repeated by the masses. Mauboussin explains however that while thousands of hours of deliberate practice will certainly allow experts to internalize the nuances and particulars of their domain and even develop certain intuitions the downside is that it reduces cognitive flexibility. You get stuck on the ideas that you have repeatedly fed into your mind and you may be numb to changing circumstance or will not test your long held beliefs frequently enough as they are not just a part of your thinking.
+"Valuation depends on your time horizon." Preach. I have been thinking about this for a while and also the idea that taxes maybe affect your personal valuation?
+The Dow 36,000 was wrong because they assumed everyone would adopt a long-term time horizon and the equity risk premium would disappear and people would be willing to pay much more for stocks. Michael says this is wrong because it assumes investor homogeneity, but markets needs investor diversity. Why?</t>
   </si>
 </sst>
 </file>
@@ -4943,11 +5222,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CB60D4-93F8-4068-A531-8A581990591B}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5592,16 +5869,169 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>477</v>
+      </c>
+      <c r="C38" t="s">
         <v>478</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>480</v>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>490</v>
+      </c>
+      <c r="C39" t="s">
+        <v>489</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="E39" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>493</v>
+      </c>
+      <c r="C40" t="s">
+        <v>494</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="E40" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>498</v>
+      </c>
+      <c r="C41" t="s">
+        <v>497</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="E41" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>498</v>
+      </c>
+      <c r="C42" t="s">
+        <v>500</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="E42" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>503</v>
+      </c>
+      <c r="C43" t="s">
+        <v>504</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="E43" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C44" t="s">
+        <v>510</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>507</v>
+      </c>
+      <c r="C45" t="s">
+        <v>509</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="E45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>513</v>
+      </c>
+      <c r="C46" t="s">
+        <v>514</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="E46" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>517</v>
+      </c>
+      <c r="C47" t="s">
+        <v>516</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="E47" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -5636,17 +6066,29 @@
     <hyperlink ref="D36" r:id="rId28" xr:uid="{3C6878E1-A182-4850-9D63-0A142A4E7ADC}"/>
     <hyperlink ref="D37" r:id="rId29" xr:uid="{F9290D5F-D8C2-4564-A9F4-780DF883D011}"/>
     <hyperlink ref="D38" r:id="rId30" xr:uid="{A45DA7FD-FBA9-496B-9CAA-E788C7619972}"/>
+    <hyperlink ref="D39" r:id="rId31" xr:uid="{098837F3-CCAD-459A-A573-7FF8989F332F}"/>
+    <hyperlink ref="D40" r:id="rId32" xr:uid="{21EC2C07-2BA2-4712-9A43-80A27717D293}"/>
+    <hyperlink ref="D41" r:id="rId33" xr:uid="{8B7FE21A-BB0C-4E1F-934E-679D29A3B1A4}"/>
+    <hyperlink ref="D42" r:id="rId34" xr:uid="{F01B08A9-ACDB-4564-80C4-92BA038144CB}"/>
+    <hyperlink ref="D43" r:id="rId35" xr:uid="{E2D83181-8EEF-4E3E-9F7C-6493D19A1550}"/>
+    <hyperlink ref="D44" r:id="rId36" xr:uid="{B53885E5-56EC-4814-A7FA-518D3D8A83DF}"/>
+    <hyperlink ref="D45" r:id="rId37" xr:uid="{15E179AF-0212-441F-BD09-86ACC29AA7F4}"/>
+    <hyperlink ref="D46" r:id="rId38" xr:uid="{B8AA8E4E-C4B5-47C7-ABF7-641A115A4B2E}"/>
+    <hyperlink ref="D47" r:id="rId39" xr:uid="{4CD56CD8-60B1-49E7-A5E1-2A3C9287B8DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF8F07A-3B88-4624-9A6F-E57A75B6D76A}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5682,7 +6124,7 @@
         <v>446</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5696,7 +6138,7 @@
         <v>447</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5710,7 +6152,7 @@
         <v>448</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5724,7 +6166,7 @@
         <v>449</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5738,7 +6180,77 @@
         <v>450</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C11" t="s">
+        <v>526</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -5751,7 +6263,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5861,26 +6375,54 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C6" t="s">
+        <v>483</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" t="s">
         <v>467</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>469</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="C8" t="s">
+        <v>486</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
@@ -6364,6 +6906,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F1BE16-01F5-4EB0-B335-6F5ED8A0D7E0}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6372,7 +6915,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B1" t="s">
         <v>442</v>

--- a/wwwroot/Data/websiteDB.xlsx
+++ b/wwwroot/Data/websiteDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgreen3\Desktop\FunWithBrandt\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB11A966-C965-46EF-A24C-47720570CF48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AC5E9E-544F-4EF0-A68E-B5D1645B45CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E658BFBE-975E-47B3-8C51-826238D4C145}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E658BFBE-975E-47B3-8C51-826238D4C145}"/>
   </bookViews>
   <sheets>
     <sheet name="Posts" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="553">
   <si>
     <t>50 Economics Classics: Your shortcut to the most important ideas on capitalism; finance; and the global economy</t>
   </si>
@@ -1934,6 +1934,75 @@
 He gives a good example on the danger of expertise. The 10,000 hours rule which was discovered by Dr. Anders Ericsson and popularized by Malcom Gladwell basically said that if you practice at something for 10,000 hours you become an expert. There was more going on there both Gladwell and Ericsson have pushed back at the idea that it is that simple, but that is generally what is repeated by the masses. Mauboussin explains however that while thousands of hours of deliberate practice will certainly allow experts to internalize the nuances and particulars of their domain and even develop certain intuitions the downside is that it reduces cognitive flexibility. You get stuck on the ideas that you have repeatedly fed into your mind and you may be numb to changing circumstance or will not test your long held beliefs frequently enough as they are not just a part of your thinking.
 "Valuation depends on your time horizon." Preach. I have been thinking about this for a while and also the idea that taxes maybe affect your personal valuation?
 The Dow 36,000 was wrong because they assumed everyone would adopt a long-term time horizon and the equity risk premium would disappear and people would be willing to pay much more for stocks. Michael says this is wrong because it assumes investor homogeneity, but markets needs investor diversity. Why?</t>
+  </si>
+  <si>
+    <t>https://patrickcollison.com/about</t>
+  </si>
+  <si>
+    <t>blog</t>
+  </si>
+  <si>
+    <t>Patrick Collion</t>
+  </si>
+  <si>
+    <t>Neat website</t>
+  </si>
+  <si>
+    <t>https://pythex.org/</t>
+  </si>
+  <si>
+    <t>Python; Regex</t>
+  </si>
+  <si>
+    <t>Helper tool for using and learning regex</t>
+  </si>
+  <si>
+    <t>Pythex</t>
+  </si>
+  <si>
+    <t>  Corpus of Contemporary American English</t>
+  </si>
+  <si>
+    <t>Frequency list of most common english words and other fun stuff</t>
+  </si>
+  <si>
+    <t>https://www.english-corpora.org/coca/</t>
+  </si>
+  <si>
+    <t>NLP; Language</t>
+  </si>
+  <si>
+    <t>https://realpython.com/</t>
+  </si>
+  <si>
+    <t>Real Python</t>
+  </si>
+  <si>
+    <t>Really great resource for learning python. The constant emails from Dan can get pretty annoying though.</t>
+  </si>
+  <si>
+    <t>HoloViews</t>
+  </si>
+  <si>
+    <t>Looks like a great python tool for making visualizations</t>
+  </si>
+  <si>
+    <t>http://holoviews.org/reference/index.html</t>
+  </si>
+  <si>
+    <t>Python; Data; Visualization</t>
+  </si>
+  <si>
+    <t>PageSpeed Insights</t>
+  </si>
+  <si>
+    <t>This site is a very quick way to figure out what is slowing down your website.</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/speed/pagespeed/insights/</t>
+  </si>
+  <si>
+    <t>Web Development</t>
   </si>
 </sst>
 </file>
@@ -2333,719 +2402,719 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3062,16 +3131,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>429</v>
       </c>
@@ -3094,7 +3163,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3114,7 +3183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3134,7 +3203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3154,7 +3223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3174,7 +3243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3194,7 +3263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3214,7 +3283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3234,7 +3303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3254,7 +3323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3274,7 +3343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3294,7 +3363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3314,7 +3383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3334,7 +3403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3354,7 +3423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3374,7 +3443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3394,7 +3463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3414,7 +3483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3434,7 +3503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3454,7 +3523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3474,7 +3543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3494,7 +3563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3514,7 +3583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3534,7 +3603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3554,7 +3623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3574,7 +3643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3594,7 +3663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3614,7 +3683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3634,7 +3703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3654,7 +3723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3674,7 +3743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3694,7 +3763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3714,7 +3783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3734,7 +3803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3754,7 +3823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3774,7 +3843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3794,7 +3863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3814,7 +3883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3834,7 +3903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3854,7 +3923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3874,7 +3943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3894,7 +3963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3914,7 +3983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3934,7 +4003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3954,7 +4023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3974,7 +4043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3994,7 +4063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4014,7 +4083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4034,7 +4103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4054,7 +4123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4074,7 +4143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4094,7 +4163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4114,7 +4183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4134,7 +4203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4154,7 +4223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4174,7 +4243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4194,7 +4263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4214,7 +4283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4234,7 +4303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4254,7 +4323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4274,7 +4343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4294,7 +4363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4314,7 +4383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4334,7 +4403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4354,7 +4423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4374,7 +4443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4394,7 +4463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4414,7 +4483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4434,7 +4503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4454,7 +4523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4474,7 +4543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4494,7 +4563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4514,7 +4583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4534,7 +4603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4554,7 +4623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4574,7 +4643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4594,7 +4663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4614,7 +4683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4634,7 +4703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4654,7 +4723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4674,7 +4743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4694,7 +4763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4714,7 +4783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4734,7 +4803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4754,7 +4823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4774,7 +4843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4794,7 +4863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4814,7 +4883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4834,7 +4903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4854,7 +4923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4874,7 +4943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4894,7 +4963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4914,7 +4983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4934,7 +5003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4954,7 +5023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4974,7 +5043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4994,7 +5063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5014,7 +5083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5034,7 +5103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5054,7 +5123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5074,7 +5143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5094,7 +5163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5114,7 +5183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5134,7 +5203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5154,7 +5223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5174,7 +5243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5194,7 +5263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5222,20 +5291,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CB60D4-93F8-4068-A531-8A581990591B}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="33.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>435</v>
       </c>
@@ -5252,7 +5323,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5269,7 +5340,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5286,7 +5357,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5303,7 +5374,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5320,7 +5391,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5337,7 +5408,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5354,7 +5425,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5371,7 +5442,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5388,7 +5459,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5405,7 +5476,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5422,7 +5493,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5439,7 +5510,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5456,7 +5527,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5473,7 +5544,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5490,7 +5561,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5507,7 +5578,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5524,7 +5595,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5541,7 +5612,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5558,7 +5629,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5575,7 +5646,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5592,7 +5663,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5609,7 +5680,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5626,7 +5697,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5643,7 +5714,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5660,7 +5731,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5677,7 +5748,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5694,7 +5765,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5711,7 +5782,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5728,7 +5799,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5745,7 +5816,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5762,7 +5833,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5779,7 +5850,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5796,7 +5867,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5813,7 +5884,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5830,7 +5901,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5847,7 +5918,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5864,7 +5935,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5881,7 +5952,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5898,7 +5969,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5915,7 +5986,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5932,7 +6003,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5949,7 +6020,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5966,7 +6037,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5983,7 +6054,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6000,7 +6071,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6017,7 +6088,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6032,6 +6103,108 @@
       </c>
       <c r="E47" t="s">
         <v>518</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>532</v>
+      </c>
+      <c r="C48" t="s">
+        <v>533</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="E48" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>537</v>
+      </c>
+      <c r="C49" t="s">
+        <v>536</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="E49" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>538</v>
+      </c>
+      <c r="C50" t="s">
+        <v>539</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="E50" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>543</v>
+      </c>
+      <c r="C51" t="s">
+        <v>544</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="E51" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>545</v>
+      </c>
+      <c r="C52" t="s">
+        <v>546</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="E52" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>549</v>
+      </c>
+      <c r="C53" t="s">
+        <v>550</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="E53" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -6075,9 +6248,15 @@
     <hyperlink ref="D45" r:id="rId37" xr:uid="{15E179AF-0212-441F-BD09-86ACC29AA7F4}"/>
     <hyperlink ref="D46" r:id="rId38" xr:uid="{B8AA8E4E-C4B5-47C7-ABF7-641A115A4B2E}"/>
     <hyperlink ref="D47" r:id="rId39" xr:uid="{4CD56CD8-60B1-49E7-A5E1-2A3C9287B8DB}"/>
+    <hyperlink ref="D48" r:id="rId40" xr:uid="{C777BFC3-3A59-4D39-9091-89E0CDBD845F}"/>
+    <hyperlink ref="D49" r:id="rId41" xr:uid="{73D722E6-B10E-4372-847B-0F0F93AAF8BF}"/>
+    <hyperlink ref="D50" r:id="rId42" xr:uid="{9BB877D3-BE6B-4F5E-97F7-91FEED428D6A}"/>
+    <hyperlink ref="D51" r:id="rId43" xr:uid="{0084E57E-1DBF-4835-BC50-84CFEA12F200}"/>
+    <hyperlink ref="D52" r:id="rId44" xr:uid="{BEE15BD4-2C15-4026-9AEF-78D0047D9997}"/>
+    <hyperlink ref="D53" r:id="rId45" xr:uid="{88AF3C83-009D-4ACC-A265-17D610CC8BEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
 
@@ -6086,17 +6265,17 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>440</v>
       </c>
@@ -6113,7 +6292,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6127,7 +6306,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6141,7 +6320,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6155,7 +6334,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6169,7 +6348,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6183,7 +6362,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -6197,7 +6376,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -6211,7 +6390,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -6225,7 +6404,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -6239,7 +6418,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -6267,13 +6446,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="6" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" customWidth="1"/>
+    <col min="2" max="6" width="28.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -6296,7 +6475,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6314,7 +6493,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6332,7 +6511,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6350,7 +6529,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6370,7 +6549,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6390,7 +6569,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6407,7 +6586,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6424,478 +6603,478 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="11"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="11"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="11"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="11"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="11"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="11"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="11"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="11"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="11"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="11"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="11"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="11"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="11"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="11"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="11"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="11"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="11"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="11"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="11"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="11"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="11"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="11"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="11"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="11"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="11"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="11"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="11"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="11"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="11"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="11"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="11"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="11"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="11"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="11"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="11"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="11"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="11"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="11"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="11"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="11"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="11"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="11"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="11"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="11"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="11"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" s="11"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="11"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="11"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B99" s="11"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="11"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="11"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" s="11"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112" s="11"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="11"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114" s="11"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" s="11"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B116" s="11"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" s="11"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B118" s="11"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B119" s="11"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B120" s="11"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B121" s="11"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B122" s="11"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B123" s="11"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124" s="11"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B125" s="11"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B126" s="11"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B127" s="11"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B128" s="11"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B129" s="11"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B130" s="11"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B131" s="11"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B132" s="11"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B133" s="11"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B134" s="11"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B135" s="11"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B136" s="11"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B137" s="11"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B138" s="11"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B139" s="11"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B140" s="11"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B141" s="11"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B142" s="11"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B143" s="11"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B144" s="11"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B145" s="11"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B146" s="11"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B147" s="11"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B148" s="11"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B149" s="11"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B150" s="11"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B151" s="11"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B152" s="11"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B153" s="11"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B154" s="11"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B155" s="11"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B156" s="11"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B157" s="11"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B158" s="11"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B159" s="11"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B160" s="11"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B161" s="11"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B162" s="11"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B163" s="11"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B164" s="11"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B165" s="11"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B166" s="11"/>
     </row>
   </sheetData>
@@ -6911,9 +7090,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>470</v>
       </c>

--- a/wwwroot/Data/websiteDB.xlsx
+++ b/wwwroot/Data/websiteDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgreen3\Desktop\FunWithBrandt\wwwroot\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15314\source\repos\FunWithBrandt\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AC5E9E-544F-4EF0-A68E-B5D1645B45CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649969A4-EE8B-4DA0-B7B5-9971A1996057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E658BFBE-975E-47B3-8C51-826238D4C145}"/>
+    <workbookView xWindow="3456" yWindow="5388" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{E658BFBE-975E-47B3-8C51-826238D4C145}"/>
   </bookViews>
   <sheets>
     <sheet name="Posts" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="561">
   <si>
     <t>50 Economics Classics: Your shortcut to the most important ideas on capitalism; finance; and the global economy</t>
   </si>
@@ -2003,6 +2003,30 @@
   </si>
   <si>
     <t>Web Development</t>
+  </si>
+  <si>
+    <t>Pep 8</t>
+  </si>
+  <si>
+    <t>Help in understanding python coding conventions</t>
+  </si>
+  <si>
+    <t>https://pep8.org/</t>
+  </si>
+  <si>
+    <t>Python; programming</t>
+  </si>
+  <si>
+    <t>Koyfin</t>
+  </si>
+  <si>
+    <t>Haven't looked at it yet, but looks like a good data source and fun blog.</t>
+  </si>
+  <si>
+    <t>https://www.koyfin.com/research/</t>
+  </si>
+  <si>
+    <t>Finance; blog; research</t>
   </si>
 </sst>
 </file>
@@ -2402,719 +2426,719 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3131,16 +3155,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.453125" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>429</v>
       </c>
@@ -3163,7 +3187,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3183,7 +3207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3203,7 +3227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3223,7 +3247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3243,7 +3267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3263,7 +3287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3283,7 +3307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3303,7 +3327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3323,7 +3347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3343,7 +3367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3363,7 +3387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3383,7 +3407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3403,7 +3427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3423,7 +3447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3443,7 +3467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3463,7 +3487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3483,7 +3507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3503,7 +3527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3523,7 +3547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3543,7 +3567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3563,7 +3587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3583,7 +3607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3603,7 +3627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3623,7 +3647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3643,7 +3667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3663,7 +3687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3683,7 +3707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3703,7 +3727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3723,7 +3747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3743,7 +3767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3763,7 +3787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3783,7 +3807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3803,7 +3827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3823,7 +3847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3843,7 +3867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3863,7 +3887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3883,7 +3907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3903,7 +3927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3923,7 +3947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3943,7 +3967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3963,7 +3987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3983,7 +4007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4003,7 +4027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4023,7 +4047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4043,7 +4067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4063,7 +4087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4083,7 +4107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4103,7 +4127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4123,7 +4147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4143,7 +4167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4163,7 +4187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4183,7 +4207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4203,7 +4227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4223,7 +4247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4243,7 +4267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4263,7 +4287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4283,7 +4307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4303,7 +4327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4323,7 +4347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4343,7 +4367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4363,7 +4387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4383,7 +4407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4403,7 +4427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4423,7 +4447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4443,7 +4467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4463,7 +4487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4483,7 +4507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4503,7 +4527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4523,7 +4547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4543,7 +4567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4563,7 +4587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4583,7 +4607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4603,7 +4627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4623,7 +4647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4643,7 +4667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4663,7 +4687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4683,7 +4707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4703,7 +4727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4723,7 +4747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4743,7 +4767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4763,7 +4787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4783,7 +4807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4803,7 +4827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4823,7 +4847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4843,7 +4867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4863,7 +4887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4883,7 +4907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4903,7 +4927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4923,7 +4947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4943,7 +4967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4963,7 +4987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4983,7 +5007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5003,7 +5027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5023,7 +5047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5043,7 +5067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5063,7 +5087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5083,7 +5107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5103,7 +5127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5123,7 +5147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5143,7 +5167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5163,7 +5187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5183,7 +5207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5203,7 +5227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5223,7 +5247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5243,7 +5267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5263,7 +5287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5291,39 +5315,39 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CB60D4-93F8-4068-A531-8A581990591B}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" customWidth="1"/>
-    <col min="5" max="5" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5340,7 +5364,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5357,7 +5381,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5374,7 +5398,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5391,7 +5415,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5408,7 +5432,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5425,7 +5449,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5442,7 +5466,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5459,7 +5483,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5476,7 +5500,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5493,7 +5517,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5510,7 +5534,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5527,7 +5551,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5544,7 +5568,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5561,7 +5585,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5578,7 +5602,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5595,7 +5619,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5612,7 +5636,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5629,7 +5653,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5646,7 +5670,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5663,7 +5687,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5680,7 +5704,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5697,7 +5721,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5714,7 +5738,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5731,7 +5755,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5748,7 +5772,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5765,7 +5789,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5782,7 +5806,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5799,7 +5823,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5816,7 +5840,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5833,7 +5857,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5850,7 +5874,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5867,7 +5891,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5884,7 +5908,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5901,7 +5925,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5918,7 +5942,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5935,14 +5959,14 @@
         <v>416</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>478</v>
       </c>
       <c r="D38" s="12" t="s">
@@ -5952,99 +5976,99 @@
         <v>479</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>489</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>494</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>497</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>500</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>504</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>510</v>
       </c>
       <c r="D44" s="12" t="s">
@@ -6054,209 +6078,245 @@
         <v>328</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>509</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>514</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>516</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>533</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>536</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>539</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>544</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>546</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>550</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="2" t="s">
         <v>552</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{CB75614B-0B0E-42E6-B2E9-BB4CB3970866}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{3ADA7C54-A0C3-4AF7-ACE3-E42B38F530E5}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{AABCB54B-1AA5-45D0-ADB2-4AAEE16063DD}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{A4E63390-E08E-47A4-987B-B96B1DC9261E}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{3508AC8D-F0C4-4A23-A354-79BF8296AC26}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{08039DF4-E4AB-4C2E-A40C-C44F5B5D150C}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{FC2C82C5-7324-4630-9760-F3F3F68F53E9}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{D283CF95-F972-4AB1-A0A7-F487E2AA6125}"/>
-    <hyperlink ref="D13" r:id="rId9" xr:uid="{B8DB2F60-002C-48F8-8A64-61735B16FEBF}"/>
-    <hyperlink ref="D14" r:id="rId10" xr:uid="{1D9A72E3-D270-4B00-9F5F-C2CFCC3C149A}"/>
-    <hyperlink ref="D15" r:id="rId11" xr:uid="{A7433479-7BF5-467D-B009-A2D491FA5224}"/>
-    <hyperlink ref="D16" r:id="rId12" xr:uid="{8D23A9AE-C128-4B2F-B5BA-2B7D102DC813}"/>
-    <hyperlink ref="D17" r:id="rId13" xr:uid="{CAF7950E-1A89-43CB-86E7-BE45B7F3FD84}"/>
-    <hyperlink ref="D21" r:id="rId14" xr:uid="{E1A215DB-B384-4D0D-B60A-D57BB5D4C931}"/>
-    <hyperlink ref="D22" r:id="rId15" xr:uid="{80FB7A20-D7C1-4D4C-B6BF-FE1E002228AB}"/>
-    <hyperlink ref="D23" r:id="rId16" xr:uid="{FC0BD4F2-E7B3-4701-889D-9208ED122017}"/>
-    <hyperlink ref="D24" r:id="rId17" xr:uid="{34DABD5A-CA58-4E4A-BD75-0F0E505E3637}"/>
-    <hyperlink ref="D26" r:id="rId18" xr:uid="{A71E3186-F0D4-4175-BE3A-27A71A1FD681}"/>
-    <hyperlink ref="D27" r:id="rId19" xr:uid="{68FEFCE5-AE17-47A8-AD8A-6C74440B14BE}"/>
-    <hyperlink ref="D28" r:id="rId20" xr:uid="{2BE0C667-22F6-4D0A-AC3B-D29E59660E52}"/>
-    <hyperlink ref="D29" r:id="rId21" xr:uid="{9D069E7B-1FF0-4CA1-9162-F08847B0C960}"/>
-    <hyperlink ref="D30" r:id="rId22" xr:uid="{30E6A219-47B6-4EE2-A347-0F9B4EB81446}"/>
-    <hyperlink ref="D31" r:id="rId23" xr:uid="{3F4A2240-186A-48B6-AAD7-E9C9CD8C2BC1}"/>
-    <hyperlink ref="D32" r:id="rId24" xr:uid="{D41F8E68-82C5-4A3E-9E51-4117D3CA3906}"/>
-    <hyperlink ref="D33" r:id="rId25" xr:uid="{CBAC2E33-D88A-4748-B37C-279245B8D488}"/>
-    <hyperlink ref="D34" r:id="rId26" xr:uid="{F6838F60-87DC-41B8-84A0-770EA8308861}"/>
-    <hyperlink ref="D35" r:id="rId27" xr:uid="{05F51246-61DC-48FA-8012-AF76340B0A93}"/>
-    <hyperlink ref="D36" r:id="rId28" xr:uid="{3C6878E1-A182-4850-9D63-0A142A4E7ADC}"/>
-    <hyperlink ref="D37" r:id="rId29" xr:uid="{F9290D5F-D8C2-4564-A9F4-780DF883D011}"/>
-    <hyperlink ref="D38" r:id="rId30" xr:uid="{A45DA7FD-FBA9-496B-9CAA-E788C7619972}"/>
-    <hyperlink ref="D39" r:id="rId31" xr:uid="{098837F3-CCAD-459A-A573-7FF8989F332F}"/>
-    <hyperlink ref="D40" r:id="rId32" xr:uid="{21EC2C07-2BA2-4712-9A43-80A27717D293}"/>
-    <hyperlink ref="D41" r:id="rId33" xr:uid="{8B7FE21A-BB0C-4E1F-934E-679D29A3B1A4}"/>
-    <hyperlink ref="D42" r:id="rId34" xr:uid="{F01B08A9-ACDB-4564-80C4-92BA038144CB}"/>
-    <hyperlink ref="D43" r:id="rId35" xr:uid="{E2D83181-8EEF-4E3E-9F7C-6493D19A1550}"/>
-    <hyperlink ref="D44" r:id="rId36" xr:uid="{B53885E5-56EC-4814-A7FA-518D3D8A83DF}"/>
-    <hyperlink ref="D45" r:id="rId37" xr:uid="{15E179AF-0212-441F-BD09-86ACC29AA7F4}"/>
-    <hyperlink ref="D46" r:id="rId38" xr:uid="{B8AA8E4E-C4B5-47C7-ABF7-641A115A4B2E}"/>
-    <hyperlink ref="D47" r:id="rId39" xr:uid="{4CD56CD8-60B1-49E7-A5E1-2A3C9287B8DB}"/>
-    <hyperlink ref="D48" r:id="rId40" xr:uid="{C777BFC3-3A59-4D39-9091-89E0CDBD845F}"/>
-    <hyperlink ref="D49" r:id="rId41" xr:uid="{73D722E6-B10E-4372-847B-0F0F93AAF8BF}"/>
-    <hyperlink ref="D50" r:id="rId42" xr:uid="{9BB877D3-BE6B-4F5E-97F7-91FEED428D6A}"/>
-    <hyperlink ref="D51" r:id="rId43" xr:uid="{0084E57E-1DBF-4835-BC50-84CFEA12F200}"/>
-    <hyperlink ref="D52" r:id="rId44" xr:uid="{BEE15BD4-2C15-4026-9AEF-78D0047D9997}"/>
-    <hyperlink ref="D53" r:id="rId45" xr:uid="{88AF3C83-009D-4ACC-A265-17D610CC8BEA}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{6C2EF1DD-2C2B-4A6F-9DEE-AEE1927BF100}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{CAAF4C62-1DB1-4AB6-9919-95FE6D3650DA}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{B24B391C-BB49-4650-8320-8C59C37EEC80}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{978AB1F6-2699-49D2-8E3C-C61A761CBAFF}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{2DCA5912-8E74-4954-8FE3-8152BBE2513F}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{7EA02C32-14B8-4597-95D3-ABAF16B1705F}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{503B4867-6C83-4D69-BB8F-2B50CA4FA3B2}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{9BD1218F-72B7-443E-94F7-193445A6B572}"/>
+    <hyperlink ref="D13" r:id="rId9" xr:uid="{F918090B-94A3-47F7-9142-600ED2B87158}"/>
+    <hyperlink ref="D14" r:id="rId10" xr:uid="{03624337-61C5-4DD4-A450-FE97C957DF86}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{5361E932-FABD-47F3-B598-F31D192467BA}"/>
+    <hyperlink ref="D16" r:id="rId12" xr:uid="{F91D5954-E047-4DF9-9DB6-1E94695B1E0D}"/>
+    <hyperlink ref="D17" r:id="rId13" xr:uid="{EABC9E22-2BBA-41B0-BB3F-84199E8615E0}"/>
+    <hyperlink ref="D21" r:id="rId14" xr:uid="{441F8A3B-9D1B-48D2-B06D-C39BBFB2FBDB}"/>
+    <hyperlink ref="D22" r:id="rId15" xr:uid="{8BACD7A3-ABCE-45A6-AA67-4ED2CAD59A7F}"/>
+    <hyperlink ref="D23" r:id="rId16" xr:uid="{E3CE2FC1-CB7A-497C-90FB-EB88D5FDE861}"/>
+    <hyperlink ref="D24" r:id="rId17" xr:uid="{C263A3FB-A6C8-4E5D-A4EE-227399C84FBA}"/>
+    <hyperlink ref="D26" r:id="rId18" xr:uid="{EAA2FAC9-F668-4024-9314-71B8E5FCACB3}"/>
+    <hyperlink ref="D27" r:id="rId19" xr:uid="{F75119A5-A527-4E7F-A027-19F1E0F7AF4B}"/>
+    <hyperlink ref="D28" r:id="rId20" xr:uid="{79C6B492-3C35-4DE0-B7E3-7D50B1B8E8A1}"/>
+    <hyperlink ref="D29" r:id="rId21" xr:uid="{6FD51BBD-3420-4931-925A-22D7A4F59921}"/>
+    <hyperlink ref="D30" r:id="rId22" xr:uid="{4FF97920-608A-4BF2-A259-D67020F62D62}"/>
+    <hyperlink ref="D31" r:id="rId23" xr:uid="{2B4E8B49-7FD7-4A52-951B-739BC4D39DE9}"/>
+    <hyperlink ref="D32" r:id="rId24" xr:uid="{71F29CCE-86A2-4D28-9D23-6C11999AF93E}"/>
+    <hyperlink ref="D33" r:id="rId25" xr:uid="{9AF6E041-ECBE-4419-A4DA-C74B60EC6F77}"/>
+    <hyperlink ref="D34" r:id="rId26" xr:uid="{44C98214-866D-4A4D-A907-7ECD55FFECA6}"/>
+    <hyperlink ref="D35" r:id="rId27" xr:uid="{622B068E-0F98-44B3-B222-5A4631E26662}"/>
+    <hyperlink ref="D36" r:id="rId28" xr:uid="{786859B8-2DF4-42AD-9458-3C17D708000D}"/>
+    <hyperlink ref="D37" r:id="rId29" xr:uid="{1D341057-4D78-4961-ADF9-332A0533C08F}"/>
+    <hyperlink ref="D38" r:id="rId30" xr:uid="{F71C84BA-C2B2-408E-843B-59BDCAAB58CE}"/>
+    <hyperlink ref="D39" r:id="rId31" xr:uid="{1D528A8D-0D66-47DC-8B06-1D10F5687144}"/>
+    <hyperlink ref="D40" r:id="rId32" xr:uid="{2C2FFC39-CC02-45A7-9177-60E24EC2C244}"/>
+    <hyperlink ref="D41" r:id="rId33" xr:uid="{C99B81D1-6690-4422-B0E6-14DA7AE7FC59}"/>
+    <hyperlink ref="D42" r:id="rId34" xr:uid="{2951E484-8D7F-4C46-BFE0-34EAF3569B2A}"/>
+    <hyperlink ref="D43" r:id="rId35" xr:uid="{EF82AB40-4BAB-45A1-8F56-47F25153E92B}"/>
+    <hyperlink ref="D44" r:id="rId36" xr:uid="{68D430AD-8481-4B20-847D-01E282C31702}"/>
+    <hyperlink ref="D45" r:id="rId37" xr:uid="{4E97F154-FBE3-4FF5-930D-5182A2EC6387}"/>
+    <hyperlink ref="D46" r:id="rId38" xr:uid="{B48326CC-1955-47E2-94B1-9E01EDA7EDAE}"/>
+    <hyperlink ref="D47" r:id="rId39" xr:uid="{67A4CBAC-5EFB-4CE3-A822-3030771B0DB5}"/>
+    <hyperlink ref="D48" r:id="rId40" xr:uid="{E3C80174-5BB6-4580-AA66-46897E2D0877}"/>
+    <hyperlink ref="D49" r:id="rId41" xr:uid="{FBBF1FC1-C296-4347-97AB-97DBED91FAF9}"/>
+    <hyperlink ref="D50" r:id="rId42" xr:uid="{B02214B2-2E4C-4A18-A186-A4E29BB57286}"/>
+    <hyperlink ref="D51" r:id="rId43" xr:uid="{3AC4DB92-16FD-4FE8-BF11-3A255A9C8B77}"/>
+    <hyperlink ref="D52" r:id="rId44" xr:uid="{87AEF1A2-3F63-4E8E-A6D8-62906AD249E7}"/>
+    <hyperlink ref="D53" r:id="rId45" xr:uid="{4332AEFB-D3FE-42C6-999A-AED7E7724105}"/>
+    <hyperlink ref="D54" r:id="rId46" xr:uid="{C1527F8B-F94B-408C-BBDD-285C6454C001}"/>
+    <hyperlink ref="D55" r:id="rId47" xr:uid="{67B808D3-9D70-472B-9EB3-B72ADFBE8974}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
+  <pageSetup orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
 
@@ -6269,13 +6329,13 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>440</v>
       </c>
@@ -6292,7 +6352,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6306,7 +6366,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6320,7 +6380,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6334,7 +6394,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6348,7 +6408,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6362,7 +6422,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -6376,7 +6436,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -6390,7 +6450,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -6404,7 +6464,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -6418,7 +6478,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -6446,13 +6506,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" customWidth="1"/>
-    <col min="2" max="6" width="28.26953125" customWidth="1"/>
+    <col min="1" max="1" width="7.21875" customWidth="1"/>
+    <col min="2" max="6" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -6475,7 +6535,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6493,7 +6553,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6511,7 +6571,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6529,7 +6589,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6549,7 +6609,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6569,7 +6629,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6586,7 +6646,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6603,478 +6663,478 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="11"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="11"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="11"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="11"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="11"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="11"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="11"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="11"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="11"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="11"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="11"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="11"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="11"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="11"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="11"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="11"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="11"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="11"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="11"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="11"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="11"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="11"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="11"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="11"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="11"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="11"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="11"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="11"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="11"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="11"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="11"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="11"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="11"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="11"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="11"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="11"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="11"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="11"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="11"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="11"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="11"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="11"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="11"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="11"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="11"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="11"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="11"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="11"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="11"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="11"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="11"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="11"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="11"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="11"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="11"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="11"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="11"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="11"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="11"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="11"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="11"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="11"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="11"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="11"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="11"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" s="11"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" s="11"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="11"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="11"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="11"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="11"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="11"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="11"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="11"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="11"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="11"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="11"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="11"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="11"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="11"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="11"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="11"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="11"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="11"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="11"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="11"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" s="11"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" s="11"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="11"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" s="11"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" s="11"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" s="11"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" s="11"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" s="11"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" s="11"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" s="11"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" s="11"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" s="11"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" s="11"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" s="11"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" s="11"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" s="11"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" s="11"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="11"/>
     </row>
   </sheetData>
@@ -7090,9 +7150,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>470</v>
       </c>
